--- a/29-04/Template planning.xlsx
+++ b/29-04/Template planning.xlsx
@@ -431,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +610,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -727,6 +733,18 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -766,18 +784,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -817,7 +824,45 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1435,8 +1480,8 @@
   <dimension ref="A1:EU115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A29:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1456,68 +1501,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:151" ht="14">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="I1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:151" ht="12">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="I2" s="3">
         <f ca="1">TODAY()</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="3" spans="1:151" ht="14.25" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:151" ht="10.5" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="28">
         <f ca="1">TODAY()</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="33"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:151" ht="12">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="29" t="s">
         <v>14</v>
       </c>
@@ -1526,12 +1571,12 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:151" ht="12">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="30">
         <v>42480</v>
       </c>
@@ -1540,15 +1585,15 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:151" s="4" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="37"/>
       <c r="I7" s="15"/>
       <c r="J7" s="5">
@@ -2585,19 +2630,19 @@
       <c r="A9" s="8"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="17"/>
@@ -3058,11 +3103,11 @@
       <c r="A10" s="8"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="61"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="17"/>
       <c r="J10" s="10">
         <f>DAY(J7)</f>
@@ -3755,6 +3800,8 @@
         <v>1</v>
       </c>
       <c r="I15" s="18"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
     </row>
     <row r="16" spans="1:151" ht="13" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -4143,7 +4190,7 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:122">
+    <row r="29" spans="1:122" hidden="1">
       <c r="B29" s="26" t="s">
         <v>88</v>
       </c>
@@ -4164,7 +4211,7 @@
       </c>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:122">
+    <row r="30" spans="1:122" hidden="1">
       <c r="B30" s="26" t="s">
         <v>88</v>
       </c>
@@ -5117,7 +5164,7 @@
     </row>
     <row r="90" spans="7:7" ht="13" customHeight="1">
       <c r="G90" s="35" t="str">
-        <f t="shared" ref="G90:G121" si="119">IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
+        <f t="shared" ref="G90:G115" si="119">IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
         <v/>
       </c>
     </row>
@@ -5273,11 +5320,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E2:G2"/>
@@ -5287,135 +5329,140 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:DR8">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:EU7">
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>K10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:EU7 K8:DR10">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>K$10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H18 H40 I46:DN46 H42:H118">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="26" priority="60">
+    <cfRule type="expression" dxfId="31" priority="60">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:BQ38 BB41:BC41 AV34:AY34 AN31:AQ31 CH45:CW45">
-    <cfRule type="expression" dxfId="25" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="69" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="70">
+    <cfRule type="expression" dxfId="29" priority="70">
       <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&lt;=$I31,$H31&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="71">
+    <cfRule type="expression" dxfId="28" priority="71">
       <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="72">
+    <cfRule type="expression" dxfId="27" priority="72">
       <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37 H41 H19:H34">
-    <cfRule type="expression" dxfId="21" priority="90">
+    <cfRule type="expression" dxfId="26" priority="90">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="20" priority="91">
+    <cfRule type="expression" dxfId="25" priority="91">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="19" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="127" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="128">
+    <cfRule type="expression" dxfId="23" priority="128">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&lt;=$I19,$H19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="129">
+    <cfRule type="expression" dxfId="22" priority="129">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="130">
+    <cfRule type="expression" dxfId="21" priority="130">
       <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="15" priority="192">
+    <cfRule type="expression" dxfId="20" priority="192">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="14" priority="194">
+    <cfRule type="expression" dxfId="19" priority="194">
       <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J10:BQ17 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45">
-    <cfRule type="expression" dxfId="13" priority="205">
+  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45 J10:BQ17">
+    <cfRule type="expression" dxfId="18" priority="205">
       <formula>AND(J$7=$I$2,$D7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:BQ17 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45">
-    <cfRule type="expression" dxfId="12" priority="214" stopIfTrue="1">
+  <conditionalFormatting sqref="J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45 J12:BQ17">
+    <cfRule type="expression" dxfId="17" priority="214" stopIfTrue="1">
       <formula>$D12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="215">
+    <cfRule type="expression" dxfId="16" priority="215">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&lt;=$I12,$H12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="216">
+    <cfRule type="expression" dxfId="15" priority="216">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12,J$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="217">
+    <cfRule type="expression" dxfId="14" priority="217">
       <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB41:BC41">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>AND(BB$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV34:AY34">
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>AND(AV$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN31:AQ31">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>AND(AN$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AL25">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(AK$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AL25">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&lt;=$I25,$H25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25,AK$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH45:CW45">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(CH$7=$I$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/29-04/Template planning.xlsx
+++ b/29-04/Template planning.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="16140" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="Abaques" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ouinon">Table!$D$1:$D$2</definedName>
     <definedName name="semaine">Table!$A$1:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BQ$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BP$76</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
   <si>
     <t>Projet</t>
   </si>
@@ -218,18 +219,12 @@
     <t>Développement de l'IHM documentation utilisateur</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>Développement de l'IHM à propos</t>
   </si>
   <si>
     <t>Développement de l'IHM "en attente de résultat"</t>
   </si>
   <si>
-    <t>moyen</t>
-  </si>
-  <si>
     <t>Développement de l'IHM affichage des résultats</t>
   </si>
   <si>
@@ -239,18 +234,12 @@
     <t>Auteur</t>
   </si>
   <si>
-    <t>Complexité</t>
-  </si>
-  <si>
     <t>Développement site web</t>
   </si>
   <si>
     <t>Développement du script crawler</t>
   </si>
   <si>
-    <t>3S, 1M, 1C</t>
-  </si>
-  <si>
     <t>Récupération de la page</t>
   </si>
   <si>
@@ -278,9 +267,6 @@
     <t>Gestion du cache</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>Gestion du résultat</t>
   </si>
   <si>
@@ -290,9 +276,6 @@
     <t>Stockage des données en BDD</t>
   </si>
   <si>
-    <t>1S</t>
-  </si>
-  <si>
     <t>MBA/DPI</t>
   </si>
   <si>
@@ -305,25 +288,109 @@
     <t>Conception de la base de données</t>
   </si>
   <si>
-    <t>2M</t>
-  </si>
-  <si>
     <t>IHM menu choix crawling ou affichage resultats</t>
   </si>
   <si>
     <t>Règle</t>
   </si>
   <si>
-    <t>1S,2M</t>
-  </si>
-  <si>
-    <t>2S,1M</t>
-  </si>
-  <si>
-    <t>SIMPLE</t>
-  </si>
-  <si>
     <t>Développement de l'IHM "MESSAGE D'ERREUR"</t>
+  </si>
+  <si>
+    <t>Mise en production</t>
+  </si>
+  <si>
+    <t>ABAQUE RELATIVE A LA CHARGE DE DEV (en JH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModèleSimple </t>
+  </si>
+  <si>
+    <t>ModèleMoyen</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Complexe</t>
+  </si>
+  <si>
+    <t>ModèleComplexe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHM </t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IHMSimple </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IHMComplexe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IHMMoyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règles </t>
+  </si>
+  <si>
+    <t>RèglesSimple</t>
+  </si>
+  <si>
+    <t>RèglesMoyen</t>
+  </si>
+  <si>
+    <t>CHARGES DE DEV PAR PROCESSUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESSUS </t>
+  </si>
+  <si>
+    <t>COMPOSANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMPLEXITE</t>
+  </si>
+  <si>
+    <t>IHM</t>
+  </si>
+  <si>
+    <t>CHARGE TOTALE</t>
+  </si>
+  <si>
+    <t>Règles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHARGE ESTIMEE</t>
+  </si>
+  <si>
+    <t>PONDERATION</t>
+  </si>
+  <si>
+    <t>CHARGE REELLE</t>
+  </si>
+  <si>
+    <t>Règle de gestion de sauvegarde des résultats</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHARGE TOTALE  </t>
+  </si>
+  <si>
+    <t>Modèle</t>
+  </si>
+  <si>
+    <t>CHARGE TOTALE DEV</t>
+  </si>
+  <si>
+    <t>Totale Charge</t>
   </si>
 </sst>
 </file>
@@ -333,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +497,64 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +591,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -571,8 +706,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -609,8 +996,76 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -733,6 +1188,46 @@
     <xf numFmtId="9" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,48 +1240,185 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="104">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -804,6 +1436,40 @@
     <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -821,10 +1487,44 @@
     <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="72">
     <dxf>
       <font>
         <color theme="0"/>
@@ -853,24 +1553,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -921,18 +1603,24 @@
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -965,15 +1653,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -1099,6 +1778,190 @@
     <dxf>
       <border>
         <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
           <color theme="1" tint="0.499984740745262"/>
         </left>
         <vertical/>
@@ -1115,6 +1978,156 @@
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7C46E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1139,7 +2152,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$1" horiz="1" inc="5" max="180" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$H$1" horiz="1" inc="5" max="180" page="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,14 +2161,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>50800</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>68</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:col>67</xdr:col>
+          <xdr:colOff>177801</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
@@ -1477,712 +2490,707 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EU115"/>
+  <dimension ref="A1:ET120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A29:XFD30"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="69" width="2.5" style="1" customWidth="1"/>
-    <col min="70" max="122" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="11" style="1"/>
+    <col min="2" max="2" width="5.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="68" width="2.5" style="1" customWidth="1"/>
+    <col min="69" max="121" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="14">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:150" ht="14">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="I1" s="1">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="H1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:151" ht="12">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:150" ht="12">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="I2" s="3">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="H2" s="3">
         <f ca="1">TODAY()</f>
         <v>42489</v>
       </c>
     </row>
-    <row r="3" spans="1:151" ht="14.25" customHeight="1">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:150" ht="14.25" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:151" ht="10.5" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:150" ht="10.5" customHeight="1">
+      <c r="A4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="28">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="28">
         <f ca="1">TODAY()</f>
         <v>42489</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="33"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:151" ht="12">
-      <c r="A5" s="62" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="33"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:150" ht="12">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="29" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:151" ht="12">
-      <c r="A6" s="62" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:150" ht="12">
+      <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="30">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="30">
         <v>42480</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="34"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:151" s="4" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="34"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:150" s="4" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="5">
-        <f>E6+I1</f>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="5">
+        <f>D6+H1</f>
         <v>42480</v>
       </c>
+      <c r="J7" s="6">
+        <f>I7+1</f>
+        <v>42481</v>
+      </c>
       <c r="K7" s="6">
-        <f>J7+1</f>
-        <v>42481</v>
+        <f t="shared" ref="K7:AY7" si="0">J7+1</f>
+        <v>42482</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" ref="L7:AZ7" si="0">K7+1</f>
-        <v>42482</v>
+        <f t="shared" si="0"/>
+        <v>42483</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="0"/>
-        <v>42483</v>
+        <v>42484</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="0"/>
-        <v>42484</v>
+        <v>42485</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="0"/>
-        <v>42485</v>
+        <v>42486</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>42486</v>
+        <v>42487</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="0"/>
-        <v>42487</v>
+        <v>42488</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="0"/>
-        <v>42488</v>
+        <v>42489</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="0"/>
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="T7" s="6">
         <f t="shared" si="0"/>
-        <v>42490</v>
+        <v>42491</v>
       </c>
       <c r="U7" s="6">
         <f t="shared" si="0"/>
-        <v>42491</v>
+        <v>42492</v>
       </c>
       <c r="V7" s="6">
         <f t="shared" si="0"/>
-        <v>42492</v>
+        <v>42493</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" si="0"/>
-        <v>42493</v>
+        <v>42494</v>
       </c>
       <c r="X7" s="6">
         <f t="shared" si="0"/>
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="Y7" s="6">
         <f t="shared" si="0"/>
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="0"/>
-        <v>42496</v>
+        <v>42497</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>42497</v>
+        <v>42498</v>
       </c>
       <c r="AB7" s="6">
         <f t="shared" si="0"/>
-        <v>42498</v>
+        <v>42499</v>
       </c>
       <c r="AC7" s="6">
         <f t="shared" si="0"/>
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="AD7" s="6">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="AE7" s="6">
         <f t="shared" si="0"/>
-        <v>42501</v>
+        <v>42502</v>
       </c>
       <c r="AF7" s="6">
         <f t="shared" si="0"/>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" si="0"/>
-        <v>42503</v>
+        <v>42504</v>
       </c>
       <c r="AH7" s="6">
         <f t="shared" si="0"/>
-        <v>42504</v>
+        <v>42505</v>
       </c>
       <c r="AI7" s="6">
         <f t="shared" si="0"/>
-        <v>42505</v>
+        <v>42506</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="0"/>
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="0"/>
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="AL7" s="6">
         <f t="shared" si="0"/>
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="AM7" s="6">
         <f t="shared" si="0"/>
-        <v>42509</v>
+        <v>42510</v>
       </c>
       <c r="AN7" s="6">
         <f t="shared" si="0"/>
-        <v>42510</v>
+        <v>42511</v>
       </c>
       <c r="AO7" s="6">
         <f t="shared" si="0"/>
-        <v>42511</v>
+        <v>42512</v>
       </c>
       <c r="AP7" s="6">
         <f t="shared" si="0"/>
-        <v>42512</v>
+        <v>42513</v>
       </c>
       <c r="AQ7" s="6">
         <f t="shared" si="0"/>
-        <v>42513</v>
+        <v>42514</v>
       </c>
       <c r="AR7" s="6">
         <f t="shared" si="0"/>
-        <v>42514</v>
+        <v>42515</v>
       </c>
       <c r="AS7" s="6">
         <f t="shared" si="0"/>
-        <v>42515</v>
+        <v>42516</v>
       </c>
       <c r="AT7" s="6">
         <f t="shared" si="0"/>
-        <v>42516</v>
+        <v>42517</v>
       </c>
       <c r="AU7" s="6">
         <f t="shared" si="0"/>
-        <v>42517</v>
+        <v>42518</v>
       </c>
       <c r="AV7" s="6">
         <f t="shared" si="0"/>
-        <v>42518</v>
+        <v>42519</v>
       </c>
       <c r="AW7" s="6">
         <f t="shared" si="0"/>
-        <v>42519</v>
+        <v>42520</v>
       </c>
       <c r="AX7" s="6">
         <f t="shared" si="0"/>
-        <v>42520</v>
+        <v>42521</v>
       </c>
       <c r="AY7" s="6">
         <f t="shared" si="0"/>
-        <v>42521</v>
+        <v>42522</v>
       </c>
       <c r="AZ7" s="6">
-        <f t="shared" si="0"/>
-        <v>42522</v>
+        <f t="shared" ref="AZ7" si="1">AY7+1</f>
+        <v>42523</v>
       </c>
       <c r="BA7" s="6">
-        <f t="shared" ref="BA7" si="1">AZ7+1</f>
-        <v>42523</v>
+        <f t="shared" ref="BA7" si="2">AZ7+1</f>
+        <v>42524</v>
       </c>
       <c r="BB7" s="6">
-        <f t="shared" ref="BB7" si="2">BA7+1</f>
-        <v>42524</v>
+        <f t="shared" ref="BB7" si="3">BA7+1</f>
+        <v>42525</v>
       </c>
       <c r="BC7" s="6">
-        <f t="shared" ref="BC7" si="3">BB7+1</f>
-        <v>42525</v>
+        <f t="shared" ref="BC7" si="4">BB7+1</f>
+        <v>42526</v>
       </c>
       <c r="BD7" s="6">
-        <f t="shared" ref="BD7" si="4">BC7+1</f>
-        <v>42526</v>
+        <f t="shared" ref="BD7" si="5">BC7+1</f>
+        <v>42527</v>
       </c>
       <c r="BE7" s="6">
-        <f t="shared" ref="BE7" si="5">BD7+1</f>
-        <v>42527</v>
+        <f t="shared" ref="BE7" si="6">BD7+1</f>
+        <v>42528</v>
       </c>
       <c r="BF7" s="6">
-        <f t="shared" ref="BF7" si="6">BE7+1</f>
-        <v>42528</v>
+        <f t="shared" ref="BF7" si="7">BE7+1</f>
+        <v>42529</v>
       </c>
       <c r="BG7" s="6">
-        <f t="shared" ref="BG7" si="7">BF7+1</f>
-        <v>42529</v>
+        <f t="shared" ref="BG7" si="8">BF7+1</f>
+        <v>42530</v>
       </c>
       <c r="BH7" s="6">
-        <f t="shared" ref="BH7" si="8">BG7+1</f>
-        <v>42530</v>
+        <f t="shared" ref="BH7" si="9">BG7+1</f>
+        <v>42531</v>
       </c>
       <c r="BI7" s="6">
-        <f t="shared" ref="BI7" si="9">BH7+1</f>
-        <v>42531</v>
+        <f t="shared" ref="BI7" si="10">BH7+1</f>
+        <v>42532</v>
       </c>
       <c r="BJ7" s="6">
-        <f t="shared" ref="BJ7" si="10">BI7+1</f>
-        <v>42532</v>
+        <f t="shared" ref="BJ7" si="11">BI7+1</f>
+        <v>42533</v>
       </c>
       <c r="BK7" s="6">
-        <f t="shared" ref="BK7" si="11">BJ7+1</f>
-        <v>42533</v>
+        <f t="shared" ref="BK7" si="12">BJ7+1</f>
+        <v>42534</v>
       </c>
       <c r="BL7" s="6">
-        <f t="shared" ref="BL7" si="12">BK7+1</f>
-        <v>42534</v>
+        <f t="shared" ref="BL7" si="13">BK7+1</f>
+        <v>42535</v>
       </c>
       <c r="BM7" s="6">
-        <f t="shared" ref="BM7" si="13">BL7+1</f>
-        <v>42535</v>
+        <f t="shared" ref="BM7" si="14">BL7+1</f>
+        <v>42536</v>
       </c>
       <c r="BN7" s="6">
-        <f t="shared" ref="BN7" si="14">BM7+1</f>
-        <v>42536</v>
+        <f t="shared" ref="BN7" si="15">BM7+1</f>
+        <v>42537</v>
       </c>
       <c r="BO7" s="6">
-        <f t="shared" ref="BO7" si="15">BN7+1</f>
-        <v>42537</v>
+        <f t="shared" ref="BO7" si="16">BN7+1</f>
+        <v>42538</v>
       </c>
       <c r="BP7" s="6">
-        <f t="shared" ref="BP7" si="16">BO7+1</f>
-        <v>42538</v>
+        <f t="shared" ref="BP7" si="17">BO7+1</f>
+        <v>42539</v>
       </c>
       <c r="BQ7" s="6">
-        <f t="shared" ref="BQ7" si="17">BP7+1</f>
-        <v>42539</v>
+        <f t="shared" ref="BQ7" si="18">BP7+1</f>
+        <v>42540</v>
       </c>
       <c r="BR7" s="6">
-        <f t="shared" ref="BR7" si="18">BQ7+1</f>
-        <v>42540</v>
+        <f t="shared" ref="BR7" si="19">BQ7+1</f>
+        <v>42541</v>
       </c>
       <c r="BS7" s="6">
-        <f t="shared" ref="BS7" si="19">BR7+1</f>
-        <v>42541</v>
+        <f t="shared" ref="BS7" si="20">BR7+1</f>
+        <v>42542</v>
       </c>
       <c r="BT7" s="6">
-        <f t="shared" ref="BT7" si="20">BS7+1</f>
-        <v>42542</v>
+        <f t="shared" ref="BT7" si="21">BS7+1</f>
+        <v>42543</v>
       </c>
       <c r="BU7" s="6">
-        <f t="shared" ref="BU7" si="21">BT7+1</f>
-        <v>42543</v>
+        <f t="shared" ref="BU7" si="22">BT7+1</f>
+        <v>42544</v>
       </c>
       <c r="BV7" s="6">
-        <f t="shared" ref="BV7" si="22">BU7+1</f>
-        <v>42544</v>
+        <f t="shared" ref="BV7" si="23">BU7+1</f>
+        <v>42545</v>
       </c>
       <c r="BW7" s="6">
-        <f t="shared" ref="BW7" si="23">BV7+1</f>
-        <v>42545</v>
+        <f t="shared" ref="BW7" si="24">BV7+1</f>
+        <v>42546</v>
       </c>
       <c r="BX7" s="6">
-        <f t="shared" ref="BX7" si="24">BW7+1</f>
-        <v>42546</v>
+        <f t="shared" ref="BX7" si="25">BW7+1</f>
+        <v>42547</v>
       </c>
       <c r="BY7" s="6">
-        <f t="shared" ref="BY7" si="25">BX7+1</f>
-        <v>42547</v>
+        <f t="shared" ref="BY7" si="26">BX7+1</f>
+        <v>42548</v>
       </c>
       <c r="BZ7" s="6">
-        <f t="shared" ref="BZ7" si="26">BY7+1</f>
-        <v>42548</v>
+        <f t="shared" ref="BZ7" si="27">BY7+1</f>
+        <v>42549</v>
       </c>
       <c r="CA7" s="6">
-        <f t="shared" ref="CA7" si="27">BZ7+1</f>
-        <v>42549</v>
+        <f t="shared" ref="CA7" si="28">BZ7+1</f>
+        <v>42550</v>
       </c>
       <c r="CB7" s="6">
-        <f t="shared" ref="CB7" si="28">CA7+1</f>
-        <v>42550</v>
+        <f t="shared" ref="CB7" si="29">CA7+1</f>
+        <v>42551</v>
       </c>
       <c r="CC7" s="6">
-        <f t="shared" ref="CC7" si="29">CB7+1</f>
-        <v>42551</v>
+        <f t="shared" ref="CC7" si="30">CB7+1</f>
+        <v>42552</v>
       </c>
       <c r="CD7" s="6">
-        <f t="shared" ref="CD7" si="30">CC7+1</f>
-        <v>42552</v>
+        <f t="shared" ref="CD7" si="31">CC7+1</f>
+        <v>42553</v>
       </c>
       <c r="CE7" s="6">
-        <f t="shared" ref="CE7" si="31">CD7+1</f>
-        <v>42553</v>
+        <f t="shared" ref="CE7" si="32">CD7+1</f>
+        <v>42554</v>
       </c>
       <c r="CF7" s="6">
-        <f t="shared" ref="CF7" si="32">CE7+1</f>
-        <v>42554</v>
+        <f t="shared" ref="CF7" si="33">CE7+1</f>
+        <v>42555</v>
       </c>
       <c r="CG7" s="6">
-        <f t="shared" ref="CG7" si="33">CF7+1</f>
-        <v>42555</v>
+        <f t="shared" ref="CG7" si="34">CF7+1</f>
+        <v>42556</v>
       </c>
       <c r="CH7" s="6">
-        <f t="shared" ref="CH7" si="34">CG7+1</f>
-        <v>42556</v>
+        <f t="shared" ref="CH7" si="35">CG7+1</f>
+        <v>42557</v>
       </c>
       <c r="CI7" s="6">
-        <f t="shared" ref="CI7" si="35">CH7+1</f>
-        <v>42557</v>
+        <f t="shared" ref="CI7" si="36">CH7+1</f>
+        <v>42558</v>
       </c>
       <c r="CJ7" s="6">
-        <f t="shared" ref="CJ7" si="36">CI7+1</f>
-        <v>42558</v>
+        <f t="shared" ref="CJ7" si="37">CI7+1</f>
+        <v>42559</v>
       </c>
       <c r="CK7" s="6">
-        <f t="shared" ref="CK7" si="37">CJ7+1</f>
-        <v>42559</v>
+        <f t="shared" ref="CK7" si="38">CJ7+1</f>
+        <v>42560</v>
       </c>
       <c r="CL7" s="6">
-        <f t="shared" ref="CL7" si="38">CK7+1</f>
-        <v>42560</v>
+        <f t="shared" ref="CL7" si="39">CK7+1</f>
+        <v>42561</v>
       </c>
       <c r="CM7" s="6">
-        <f t="shared" ref="CM7" si="39">CL7+1</f>
-        <v>42561</v>
+        <f t="shared" ref="CM7" si="40">CL7+1</f>
+        <v>42562</v>
       </c>
       <c r="CN7" s="6">
-        <f t="shared" ref="CN7" si="40">CM7+1</f>
-        <v>42562</v>
+        <f t="shared" ref="CN7" si="41">CM7+1</f>
+        <v>42563</v>
       </c>
       <c r="CO7" s="6">
-        <f t="shared" ref="CO7" si="41">CN7+1</f>
-        <v>42563</v>
+        <f t="shared" ref="CO7" si="42">CN7+1</f>
+        <v>42564</v>
       </c>
       <c r="CP7" s="6">
-        <f t="shared" ref="CP7" si="42">CO7+1</f>
-        <v>42564</v>
+        <f t="shared" ref="CP7" si="43">CO7+1</f>
+        <v>42565</v>
       </c>
       <c r="CQ7" s="6">
-        <f t="shared" ref="CQ7" si="43">CP7+1</f>
-        <v>42565</v>
+        <f t="shared" ref="CQ7" si="44">CP7+1</f>
+        <v>42566</v>
       </c>
       <c r="CR7" s="6">
-        <f t="shared" ref="CR7" si="44">CQ7+1</f>
-        <v>42566</v>
+        <f t="shared" ref="CR7" si="45">CQ7+1</f>
+        <v>42567</v>
       </c>
       <c r="CS7" s="6">
-        <f t="shared" ref="CS7" si="45">CR7+1</f>
-        <v>42567</v>
+        <f t="shared" ref="CS7" si="46">CR7+1</f>
+        <v>42568</v>
       </c>
       <c r="CT7" s="6">
-        <f t="shared" ref="CT7" si="46">CS7+1</f>
-        <v>42568</v>
+        <f t="shared" ref="CT7" si="47">CS7+1</f>
+        <v>42569</v>
       </c>
       <c r="CU7" s="6">
-        <f t="shared" ref="CU7" si="47">CT7+1</f>
-        <v>42569</v>
+        <f t="shared" ref="CU7" si="48">CT7+1</f>
+        <v>42570</v>
       </c>
       <c r="CV7" s="6">
-        <f t="shared" ref="CV7" si="48">CU7+1</f>
-        <v>42570</v>
+        <f t="shared" ref="CV7" si="49">CU7+1</f>
+        <v>42571</v>
       </c>
       <c r="CW7" s="6">
-        <f t="shared" ref="CW7" si="49">CV7+1</f>
-        <v>42571</v>
+        <f t="shared" ref="CW7" si="50">CV7+1</f>
+        <v>42572</v>
       </c>
       <c r="CX7" s="6">
-        <f t="shared" ref="CX7" si="50">CW7+1</f>
-        <v>42572</v>
+        <f t="shared" ref="CX7" si="51">CW7+1</f>
+        <v>42573</v>
       </c>
       <c r="CY7" s="6">
-        <f t="shared" ref="CY7" si="51">CX7+1</f>
-        <v>42573</v>
+        <f t="shared" ref="CY7" si="52">CX7+1</f>
+        <v>42574</v>
       </c>
       <c r="CZ7" s="6">
-        <f t="shared" ref="CZ7" si="52">CY7+1</f>
-        <v>42574</v>
+        <f t="shared" ref="CZ7" si="53">CY7+1</f>
+        <v>42575</v>
       </c>
       <c r="DA7" s="6">
-        <f t="shared" ref="DA7" si="53">CZ7+1</f>
-        <v>42575</v>
+        <f t="shared" ref="DA7" si="54">CZ7+1</f>
+        <v>42576</v>
       </c>
       <c r="DB7" s="6">
-        <f t="shared" ref="DB7" si="54">DA7+1</f>
-        <v>42576</v>
+        <f t="shared" ref="DB7" si="55">DA7+1</f>
+        <v>42577</v>
       </c>
       <c r="DC7" s="6">
-        <f t="shared" ref="DC7" si="55">DB7+1</f>
-        <v>42577</v>
+        <f t="shared" ref="DC7" si="56">DB7+1</f>
+        <v>42578</v>
       </c>
       <c r="DD7" s="6">
-        <f t="shared" ref="DD7" si="56">DC7+1</f>
-        <v>42578</v>
+        <f t="shared" ref="DD7" si="57">DC7+1</f>
+        <v>42579</v>
       </c>
       <c r="DE7" s="6">
-        <f t="shared" ref="DE7" si="57">DD7+1</f>
-        <v>42579</v>
+        <f t="shared" ref="DE7" si="58">DD7+1</f>
+        <v>42580</v>
       </c>
       <c r="DF7" s="6">
-        <f t="shared" ref="DF7" si="58">DE7+1</f>
-        <v>42580</v>
+        <f t="shared" ref="DF7" si="59">DE7+1</f>
+        <v>42581</v>
       </c>
       <c r="DG7" s="6">
-        <f t="shared" ref="DG7" si="59">DF7+1</f>
-        <v>42581</v>
+        <f t="shared" ref="DG7" si="60">DF7+1</f>
+        <v>42582</v>
       </c>
       <c r="DH7" s="6">
-        <f t="shared" ref="DH7" si="60">DG7+1</f>
-        <v>42582</v>
+        <f t="shared" ref="DH7" si="61">DG7+1</f>
+        <v>42583</v>
       </c>
       <c r="DI7" s="6">
-        <f t="shared" ref="DI7" si="61">DH7+1</f>
-        <v>42583</v>
+        <f t="shared" ref="DI7" si="62">DH7+1</f>
+        <v>42584</v>
       </c>
       <c r="DJ7" s="6">
-        <f t="shared" ref="DJ7" si="62">DI7+1</f>
-        <v>42584</v>
+        <f t="shared" ref="DJ7" si="63">DI7+1</f>
+        <v>42585</v>
       </c>
       <c r="DK7" s="6">
-        <f t="shared" ref="DK7" si="63">DJ7+1</f>
-        <v>42585</v>
+        <f t="shared" ref="DK7" si="64">DJ7+1</f>
+        <v>42586</v>
       </c>
       <c r="DL7" s="6">
-        <f t="shared" ref="DL7" si="64">DK7+1</f>
-        <v>42586</v>
+        <f t="shared" ref="DL7" si="65">DK7+1</f>
+        <v>42587</v>
       </c>
       <c r="DM7" s="6">
-        <f t="shared" ref="DM7" si="65">DL7+1</f>
-        <v>42587</v>
+        <f t="shared" ref="DM7" si="66">DL7+1</f>
+        <v>42588</v>
       </c>
       <c r="DN7" s="6">
-        <f t="shared" ref="DN7" si="66">DM7+1</f>
-        <v>42588</v>
+        <f t="shared" ref="DN7" si="67">DM7+1</f>
+        <v>42589</v>
       </c>
       <c r="DO7" s="6">
-        <f t="shared" ref="DO7" si="67">DN7+1</f>
-        <v>42589</v>
+        <f t="shared" ref="DO7" si="68">DN7+1</f>
+        <v>42590</v>
       </c>
       <c r="DP7" s="6">
-        <f t="shared" ref="DP7" si="68">DO7+1</f>
-        <v>42590</v>
+        <f t="shared" ref="DP7" si="69">DO7+1</f>
+        <v>42591</v>
       </c>
       <c r="DQ7" s="6">
-        <f t="shared" ref="DQ7" si="69">DP7+1</f>
-        <v>42591</v>
+        <f t="shared" ref="DQ7" si="70">DP7+1</f>
+        <v>42592</v>
       </c>
       <c r="DR7" s="6">
-        <f t="shared" ref="DR7" si="70">DQ7+1</f>
-        <v>42592</v>
+        <f t="shared" ref="DR7" si="71">DQ7+1</f>
+        <v>42593</v>
       </c>
       <c r="DS7" s="6">
-        <f t="shared" ref="DS7" si="71">DR7+1</f>
-        <v>42593</v>
+        <f t="shared" ref="DS7" si="72">DR7+1</f>
+        <v>42594</v>
       </c>
       <c r="DT7" s="6">
-        <f t="shared" ref="DT7" si="72">DS7+1</f>
-        <v>42594</v>
+        <f t="shared" ref="DT7" si="73">DS7+1</f>
+        <v>42595</v>
       </c>
       <c r="DU7" s="6">
-        <f t="shared" ref="DU7" si="73">DT7+1</f>
-        <v>42595</v>
+        <f t="shared" ref="DU7" si="74">DT7+1</f>
+        <v>42596</v>
       </c>
       <c r="DV7" s="6">
-        <f t="shared" ref="DV7" si="74">DU7+1</f>
-        <v>42596</v>
+        <f t="shared" ref="DV7" si="75">DU7+1</f>
+        <v>42597</v>
       </c>
       <c r="DW7" s="6">
-        <f t="shared" ref="DW7" si="75">DV7+1</f>
-        <v>42597</v>
+        <f t="shared" ref="DW7" si="76">DV7+1</f>
+        <v>42598</v>
       </c>
       <c r="DX7" s="6">
-        <f t="shared" ref="DX7" si="76">DW7+1</f>
-        <v>42598</v>
+        <f t="shared" ref="DX7" si="77">DW7+1</f>
+        <v>42599</v>
       </c>
       <c r="DY7" s="6">
-        <f t="shared" ref="DY7" si="77">DX7+1</f>
-        <v>42599</v>
+        <f t="shared" ref="DY7" si="78">DX7+1</f>
+        <v>42600</v>
       </c>
       <c r="DZ7" s="6">
-        <f t="shared" ref="DZ7" si="78">DY7+1</f>
-        <v>42600</v>
+        <f t="shared" ref="DZ7" si="79">DY7+1</f>
+        <v>42601</v>
       </c>
       <c r="EA7" s="6">
-        <f t="shared" ref="EA7" si="79">DZ7+1</f>
-        <v>42601</v>
+        <f t="shared" ref="EA7" si="80">DZ7+1</f>
+        <v>42602</v>
       </c>
       <c r="EB7" s="6">
-        <f t="shared" ref="EB7" si="80">EA7+1</f>
-        <v>42602</v>
+        <f t="shared" ref="EB7" si="81">EA7+1</f>
+        <v>42603</v>
       </c>
       <c r="EC7" s="6">
-        <f t="shared" ref="EC7" si="81">EB7+1</f>
-        <v>42603</v>
+        <f t="shared" ref="EC7" si="82">EB7+1</f>
+        <v>42604</v>
       </c>
       <c r="ED7" s="6">
-        <f t="shared" ref="ED7" si="82">EC7+1</f>
-        <v>42604</v>
+        <f t="shared" ref="ED7" si="83">EC7+1</f>
+        <v>42605</v>
       </c>
       <c r="EE7" s="6">
-        <f t="shared" ref="EE7" si="83">ED7+1</f>
-        <v>42605</v>
+        <f t="shared" ref="EE7" si="84">ED7+1</f>
+        <v>42606</v>
       </c>
       <c r="EF7" s="6">
-        <f t="shared" ref="EF7" si="84">EE7+1</f>
-        <v>42606</v>
+        <f t="shared" ref="EF7" si="85">EE7+1</f>
+        <v>42607</v>
       </c>
       <c r="EG7" s="6">
-        <f t="shared" ref="EG7" si="85">EF7+1</f>
-        <v>42607</v>
+        <f t="shared" ref="EG7" si="86">EF7+1</f>
+        <v>42608</v>
       </c>
       <c r="EH7" s="6">
-        <f t="shared" ref="EH7" si="86">EG7+1</f>
-        <v>42608</v>
+        <f t="shared" ref="EH7" si="87">EG7+1</f>
+        <v>42609</v>
       </c>
       <c r="EI7" s="6">
-        <f t="shared" ref="EI7" si="87">EH7+1</f>
-        <v>42609</v>
+        <f t="shared" ref="EI7" si="88">EH7+1</f>
+        <v>42610</v>
       </c>
       <c r="EJ7" s="6">
-        <f t="shared" ref="EJ7" si="88">EI7+1</f>
-        <v>42610</v>
+        <f t="shared" ref="EJ7" si="89">EI7+1</f>
+        <v>42611</v>
       </c>
       <c r="EK7" s="6">
-        <f t="shared" ref="EK7" si="89">EJ7+1</f>
-        <v>42611</v>
+        <f t="shared" ref="EK7" si="90">EJ7+1</f>
+        <v>42612</v>
       </c>
       <c r="EL7" s="6">
-        <f t="shared" ref="EL7" si="90">EK7+1</f>
-        <v>42612</v>
+        <f t="shared" ref="EL7" si="91">EK7+1</f>
+        <v>42613</v>
       </c>
       <c r="EM7" s="6">
-        <f t="shared" ref="EM7" si="91">EL7+1</f>
-        <v>42613</v>
+        <f t="shared" ref="EM7" si="92">EL7+1</f>
+        <v>42614</v>
       </c>
       <c r="EN7" s="6">
-        <f t="shared" ref="EN7" si="92">EM7+1</f>
-        <v>42614</v>
+        <f t="shared" ref="EN7" si="93">EM7+1</f>
+        <v>42615</v>
       </c>
       <c r="EO7" s="6">
-        <f t="shared" ref="EO7" si="93">EN7+1</f>
-        <v>42615</v>
+        <f t="shared" ref="EO7" si="94">EN7+1</f>
+        <v>42616</v>
       </c>
       <c r="EP7" s="6">
-        <f t="shared" ref="EP7" si="94">EO7+1</f>
-        <v>42616</v>
+        <f t="shared" ref="EP7" si="95">EO7+1</f>
+        <v>42617</v>
       </c>
       <c r="EQ7" s="6">
-        <f t="shared" ref="EQ7" si="95">EP7+1</f>
-        <v>42617</v>
+        <f t="shared" ref="EQ7" si="96">EP7+1</f>
+        <v>42618</v>
       </c>
       <c r="ER7" s="6">
-        <f t="shared" ref="ER7" si="96">EQ7+1</f>
-        <v>42618</v>
+        <f t="shared" ref="ER7" si="97">EQ7+1</f>
+        <v>42619</v>
       </c>
       <c r="ES7" s="6">
-        <f t="shared" ref="ES7" si="97">ER7+1</f>
-        <v>42619</v>
+        <f t="shared" ref="ES7" si="98">ER7+1</f>
+        <v>42620</v>
       </c>
       <c r="ET7" s="6">
-        <f t="shared" ref="ET7" si="98">ES7+1</f>
-        <v>42620</v>
-      </c>
-      <c r="EU7" s="6">
-        <f t="shared" ref="EU7" si="99">ET7+1</f>
+        <f t="shared" ref="ET7" si="99">ES7+1</f>
         <v>42621</v>
       </c>
     </row>
-    <row r="8" spans="1:151" s="7" customFormat="1" ht="28.5" customHeight="1">
+    <row r="8" spans="1:150" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="16"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="9" t="str">
+        <f>"S "&amp;WEEKNUM(I7,2)</f>
+        <v>S 17</v>
+      </c>
       <c r="J8" s="9" t="str">
-        <f>"S "&amp;WEEKNUM(J7,2)</f>
-        <v>S 17</v>
+        <f t="shared" ref="J8" si="100">IF(J9="L","S "&amp;WEEKNUM(J7,2),"")</f>
+        <v/>
       </c>
       <c r="K8" s="9" t="str">
-        <f t="shared" ref="K8" si="100">IF(K9="L","S "&amp;WEEKNUM(K7,2),"")</f>
+        <f t="shared" ref="K8:BV8" si="101">IF(K9="L","S "&amp;WEEKNUM(K7,2),"")</f>
         <v/>
       </c>
       <c r="L8" s="9" t="str">
-        <f t="shared" ref="L8:BW8" si="101">IF(L9="L","S "&amp;WEEKNUM(L7,2),"")</f>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="M8" s="9" t="str">
@@ -2191,11 +3199,11 @@
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 18</v>
       </c>
       <c r="O8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 18</v>
+        <v/>
       </c>
       <c r="P8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2219,11 +3227,11 @@
       </c>
       <c r="U8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 19</v>
       </c>
       <c r="V8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 19</v>
+        <v/>
       </c>
       <c r="W8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2247,11 +3255,11 @@
       </c>
       <c r="AB8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 20</v>
       </c>
       <c r="AC8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 20</v>
+        <v/>
       </c>
       <c r="AD8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2275,11 +3283,11 @@
       </c>
       <c r="AI8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 21</v>
       </c>
       <c r="AJ8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 21</v>
+        <v/>
       </c>
       <c r="AK8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2303,11 +3311,11 @@
       </c>
       <c r="AP8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 22</v>
       </c>
       <c r="AQ8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 22</v>
+        <v/>
       </c>
       <c r="AR8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2331,11 +3339,11 @@
       </c>
       <c r="AW8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 23</v>
       </c>
       <c r="AX8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 23</v>
+        <v/>
       </c>
       <c r="AY8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2359,11 +3367,11 @@
       </c>
       <c r="BD8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 24</v>
       </c>
       <c r="BE8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 24</v>
+        <v/>
       </c>
       <c r="BF8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2387,11 +3395,11 @@
       </c>
       <c r="BK8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 25</v>
       </c>
       <c r="BL8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 25</v>
+        <v/>
       </c>
       <c r="BM8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2415,11 +3423,11 @@
       </c>
       <c r="BR8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v/>
+        <v>S 26</v>
       </c>
       <c r="BS8" s="9" t="str">
         <f t="shared" si="101"/>
-        <v>S 26</v>
+        <v/>
       </c>
       <c r="BT8" s="9" t="str">
         <f t="shared" si="101"/>
@@ -2434,20 +3442,20 @@
         <v/>
       </c>
       <c r="BW8" s="9" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="BW8:DQ8" si="102">IF(BW9="L","S "&amp;WEEKNUM(BW7,2),"")</f>
         <v/>
       </c>
       <c r="BX8" s="9" t="str">
-        <f t="shared" ref="BX8:DR8" si="102">IF(BX9="L","S "&amp;WEEKNUM(BX7,2),"")</f>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="BY8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 27</v>
       </c>
       <c r="BZ8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 27</v>
+        <v/>
       </c>
       <c r="CA8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2471,11 +3479,11 @@
       </c>
       <c r="CF8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 28</v>
       </c>
       <c r="CG8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 28</v>
+        <v/>
       </c>
       <c r="CH8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2499,11 +3507,11 @@
       </c>
       <c r="CM8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 29</v>
       </c>
       <c r="CN8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 29</v>
+        <v/>
       </c>
       <c r="CO8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2527,11 +3535,11 @@
       </c>
       <c r="CT8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 30</v>
       </c>
       <c r="CU8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 30</v>
+        <v/>
       </c>
       <c r="CV8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2555,11 +3563,11 @@
       </c>
       <c r="DA8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 31</v>
       </c>
       <c r="DB8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 31</v>
+        <v/>
       </c>
       <c r="DC8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2583,11 +3591,11 @@
       </c>
       <c r="DH8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 32</v>
       </c>
       <c r="DI8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 32</v>
+        <v/>
       </c>
       <c r="DJ8" s="9" t="str">
         <f t="shared" si="102"/>
@@ -2611,64 +3619,65 @@
       </c>
       <c r="DO8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v/>
+        <v>S 33</v>
       </c>
       <c r="DP8" s="9" t="str">
         <f t="shared" si="102"/>
-        <v>S 33</v>
+        <v/>
       </c>
       <c r="DQ8" s="9" t="str">
         <f t="shared" si="102"/>
         <v/>
       </c>
-      <c r="DR8" s="9" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
+    </row>
+    <row r="9" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="E9" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="10" t="str">
+        <f t="shared" ref="I9:J9" si="103">VLOOKUP(WEEKDAY(I7,2),semaine,2,FALSE)</f>
+        <v>M</v>
+      </c>
       <c r="J9" s="10" t="str">
-        <f t="shared" ref="J9:K9" si="103">VLOOKUP(WEEKDAY(J7,2),semaine,2,FALSE)</f>
-        <v>M</v>
-      </c>
-      <c r="K9" s="10" t="str">
         <f t="shared" si="103"/>
         <v>J</v>
       </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" ref="K9:BV9" si="104">VLOOKUP(WEEKDAY(K7,2),semaine,2,FALSE)</f>
+        <v>V</v>
+      </c>
       <c r="L9" s="10" t="str">
-        <f t="shared" ref="L9:BW9" si="104">VLOOKUP(WEEKDAY(L7,2),semaine,2,FALSE)</f>
-        <v>V</v>
+        <f t="shared" si="104"/>
+        <v>S</v>
       </c>
       <c r="M9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="N9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="O9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="P9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2676,27 +3685,27 @@
       </c>
       <c r="Q9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="R9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="T9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="U9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2704,27 +3713,27 @@
       </c>
       <c r="X9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="Y9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="Z9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="AA9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AB9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="AC9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2732,27 +3741,27 @@
       </c>
       <c r="AE9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="AF9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="AG9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="AH9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AI9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="AJ9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2760,27 +3769,27 @@
       </c>
       <c r="AL9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="AM9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="AN9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="AO9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AP9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="AQ9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2788,27 +3797,27 @@
       </c>
       <c r="AS9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="AT9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="AU9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="AV9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AW9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="AX9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2816,27 +3825,27 @@
       </c>
       <c r="AZ9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="BA9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="BB9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="BC9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BD9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="BE9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2844,27 +3853,27 @@
       </c>
       <c r="BG9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="BH9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="BI9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="BJ9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BK9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="BL9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="BM9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2872,27 +3881,27 @@
       </c>
       <c r="BN9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="BO9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="BP9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="BQ9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BR9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="BS9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="BT9" s="10" t="str">
         <f t="shared" si="104"/>
@@ -2900,27 +3909,27 @@
       </c>
       <c r="BU9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="BV9" s="10" t="str">
         <f t="shared" si="104"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="BW9" s="10" t="str">
-        <f t="shared" si="104"/>
-        <v>V</v>
+        <f t="shared" ref="BW9:DQ9" si="105">VLOOKUP(WEEKDAY(BW7,2),semaine,2,FALSE)</f>
+        <v>S</v>
       </c>
       <c r="BX9" s="10" t="str">
-        <f t="shared" ref="BX9:DR9" si="105">VLOOKUP(WEEKDAY(BX7,2),semaine,2,FALSE)</f>
-        <v>S</v>
+        <f t="shared" si="105"/>
+        <v>D</v>
       </c>
       <c r="BY9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="BZ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="CA9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2928,27 +3937,27 @@
       </c>
       <c r="CB9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="CC9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="CD9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="CE9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CF9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="CG9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="CH9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2956,27 +3965,27 @@
       </c>
       <c r="CI9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="CJ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="CK9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="CL9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CM9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="CN9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="CO9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -2984,27 +3993,27 @@
       </c>
       <c r="CP9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="CQ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="CR9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="CS9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="CT9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="CU9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="CV9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -3012,27 +4021,27 @@
       </c>
       <c r="CW9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="CX9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="CY9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="CZ9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DA9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="DB9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="DC9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -3040,27 +4049,27 @@
       </c>
       <c r="DD9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="DE9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="DF9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="DG9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DH9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="DI9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="DJ9" s="10" t="str">
         <f t="shared" si="105"/>
@@ -3068,516 +4077,511 @@
       </c>
       <c r="DK9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="DL9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>J</v>
+        <v>V</v>
       </c>
       <c r="DM9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>V</v>
+        <v>S</v>
       </c>
       <c r="DN9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="DO9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>D</v>
+        <v>L</v>
       </c>
       <c r="DP9" s="10" t="str">
         <f t="shared" si="105"/>
-        <v>L</v>
+        <v>M</v>
       </c>
       <c r="DQ9" s="10" t="str">
         <f t="shared" si="105"/>
         <v>M</v>
       </c>
-      <c r="DR9" s="10" t="str">
-        <f t="shared" si="105"/>
-        <v>M</v>
-      </c>
-    </row>
-    <row r="10" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
+    </row>
+    <row r="10" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="10">
+        <f>DAY(I7)</f>
+        <v>20</v>
+      </c>
       <c r="J10" s="10">
-        <f>DAY(J7)</f>
-        <v>20</v>
+        <f t="shared" ref="J10" si="106">DAY(J7)</f>
+        <v>21</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" ref="K10" si="106">DAY(K7)</f>
-        <v>21</v>
+        <f t="shared" ref="K10:BV10" si="107">DAY(K7)</f>
+        <v>22</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" ref="L10:BW10" si="107">DAY(L7)</f>
-        <v>22</v>
+        <f t="shared" si="107"/>
+        <v>23</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="107"/>
+        <v>24</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="107"/>
+        <v>25</v>
+      </c>
+      <c r="O10" s="40">
+        <f t="shared" si="107"/>
+        <v>26</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" si="107"/>
+        <v>27</v>
+      </c>
+      <c r="Q10" s="40">
+        <f t="shared" si="107"/>
+        <v>28</v>
+      </c>
+      <c r="R10" s="43">
+        <f t="shared" si="107"/>
+        <v>29</v>
+      </c>
+      <c r="S10" s="41">
+        <f t="shared" si="107"/>
+        <v>30</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="107"/>
+        <v>4</v>
+      </c>
+      <c r="X10" s="10">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="107"/>
+        <v>6</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="107"/>
+        <v>7</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="AB10" s="40">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="AC10" s="40">
+        <f t="shared" si="107"/>
+        <v>10</v>
+      </c>
+      <c r="AD10" s="40">
+        <f t="shared" si="107"/>
+        <v>11</v>
+      </c>
+      <c r="AE10" s="40">
+        <f t="shared" si="107"/>
+        <v>12</v>
+      </c>
+      <c r="AF10" s="40">
+        <f t="shared" si="107"/>
+        <v>13</v>
+      </c>
+      <c r="AG10" s="10">
+        <f t="shared" si="107"/>
+        <v>14</v>
+      </c>
+      <c r="AH10" s="10">
+        <f t="shared" si="107"/>
+        <v>15</v>
+      </c>
+      <c r="AI10" s="10">
+        <f t="shared" si="107"/>
+        <v>16</v>
+      </c>
+      <c r="AJ10" s="10">
+        <f t="shared" si="107"/>
+        <v>17</v>
+      </c>
+      <c r="AK10" s="10">
+        <f t="shared" si="107"/>
+        <v>18</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" si="107"/>
+        <v>19</v>
+      </c>
+      <c r="AM10" s="10">
+        <f t="shared" si="107"/>
+        <v>20</v>
+      </c>
+      <c r="AN10" s="10">
+        <f t="shared" si="107"/>
+        <v>21</v>
+      </c>
+      <c r="AO10" s="10">
+        <f t="shared" si="107"/>
+        <v>22</v>
+      </c>
+      <c r="AP10" s="10">
+        <f t="shared" si="107"/>
         <v>23</v>
       </c>
-      <c r="N10" s="10">
+      <c r="AQ10" s="10">
         <f t="shared" si="107"/>
         <v>24</v>
       </c>
-      <c r="O10" s="40">
+      <c r="AR10" s="10">
         <f t="shared" si="107"/>
         <v>25</v>
       </c>
-      <c r="P10" s="40">
+      <c r="AS10" s="10">
         <f t="shared" si="107"/>
         <v>26</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="AT10" s="10">
         <f t="shared" si="107"/>
         <v>27</v>
       </c>
-      <c r="R10" s="40">
+      <c r="AU10" s="10">
         <f t="shared" si="107"/>
         <v>28</v>
       </c>
-      <c r="S10" s="43">
+      <c r="AV10" s="10">
         <f t="shared" si="107"/>
         <v>29</v>
       </c>
-      <c r="T10" s="41">
+      <c r="AW10" s="10">
         <f t="shared" si="107"/>
         <v>30</v>
       </c>
-      <c r="U10" s="10">
+      <c r="AX10" s="10">
+        <f t="shared" si="107"/>
+        <v>31</v>
+      </c>
+      <c r="AY10" s="10">
         <f t="shared" si="107"/>
         <v>1</v>
       </c>
-      <c r="V10" s="10">
+      <c r="AZ10" s="10">
         <f t="shared" si="107"/>
         <v>2</v>
       </c>
-      <c r="W10" s="10">
+      <c r="BA10" s="10">
         <f t="shared" si="107"/>
         <v>3</v>
       </c>
-      <c r="X10" s="10">
+      <c r="BB10" s="10">
         <f t="shared" si="107"/>
         <v>4</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="BC10" s="10">
         <f t="shared" si="107"/>
         <v>5</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="BD10" s="10">
         <f t="shared" si="107"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="BE10" s="10">
         <f t="shared" si="107"/>
         <v>7</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="BF10" s="10">
         <f t="shared" si="107"/>
         <v>8</v>
       </c>
-      <c r="AC10" s="40">
+      <c r="BG10" s="10">
         <f t="shared" si="107"/>
         <v>9</v>
       </c>
-      <c r="AD10" s="40">
+      <c r="BH10" s="10">
         <f t="shared" si="107"/>
         <v>10</v>
       </c>
-      <c r="AE10" s="40">
+      <c r="BI10" s="10">
         <f t="shared" si="107"/>
         <v>11</v>
       </c>
-      <c r="AF10" s="40">
+      <c r="BJ10" s="10">
         <f t="shared" si="107"/>
         <v>12</v>
       </c>
-      <c r="AG10" s="40">
+      <c r="BK10" s="10">
         <f t="shared" si="107"/>
         <v>13</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="BL10" s="10">
         <f t="shared" si="107"/>
         <v>14</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="BM10" s="10">
         <f t="shared" si="107"/>
         <v>15</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="BN10" s="10">
         <f t="shared" si="107"/>
         <v>16</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="BO10" s="10">
         <f t="shared" si="107"/>
         <v>17</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="BP10" s="10">
         <f t="shared" si="107"/>
         <v>18</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="BQ10" s="10">
         <f t="shared" si="107"/>
         <v>19</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="BR10" s="42">
         <f t="shared" si="107"/>
         <v>20</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="BS10" s="42">
         <f t="shared" si="107"/>
         <v>21</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="BT10" s="42">
         <f t="shared" si="107"/>
         <v>22</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="BU10" s="42">
         <f t="shared" si="107"/>
         <v>23</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="BV10" s="42">
         <f t="shared" si="107"/>
         <v>24</v>
       </c>
-      <c r="AS10" s="10">
-        <f t="shared" si="107"/>
+      <c r="BW10" s="10">
+        <f t="shared" ref="BW10:DQ10" si="108">DAY(BW7)</f>
         <v>25</v>
       </c>
-      <c r="AT10" s="10">
-        <f t="shared" si="107"/>
-        <v>26</v>
-      </c>
-      <c r="AU10" s="10">
-        <f t="shared" si="107"/>
-        <v>27</v>
-      </c>
-      <c r="AV10" s="10">
-        <f t="shared" si="107"/>
-        <v>28</v>
-      </c>
-      <c r="AW10" s="10">
-        <f t="shared" si="107"/>
-        <v>29</v>
-      </c>
-      <c r="AX10" s="10">
-        <f t="shared" si="107"/>
-        <v>30</v>
-      </c>
-      <c r="AY10" s="10">
-        <f t="shared" si="107"/>
-        <v>31</v>
-      </c>
-      <c r="AZ10" s="10">
-        <f t="shared" si="107"/>
-        <v>1</v>
-      </c>
-      <c r="BA10" s="10">
-        <f t="shared" si="107"/>
-        <v>2</v>
-      </c>
-      <c r="BB10" s="10">
-        <f t="shared" si="107"/>
-        <v>3</v>
-      </c>
-      <c r="BC10" s="10">
-        <f t="shared" si="107"/>
-        <v>4</v>
-      </c>
-      <c r="BD10" s="10">
-        <f t="shared" si="107"/>
-        <v>5</v>
-      </c>
-      <c r="BE10" s="10">
-        <f t="shared" si="107"/>
-        <v>6</v>
-      </c>
-      <c r="BF10" s="10">
-        <f t="shared" si="107"/>
-        <v>7</v>
-      </c>
-      <c r="BG10" s="10">
-        <f t="shared" si="107"/>
-        <v>8</v>
-      </c>
-      <c r="BH10" s="10">
-        <f t="shared" si="107"/>
-        <v>9</v>
-      </c>
-      <c r="BI10" s="10">
-        <f t="shared" si="107"/>
-        <v>10</v>
-      </c>
-      <c r="BJ10" s="10">
-        <f t="shared" si="107"/>
-        <v>11</v>
-      </c>
-      <c r="BK10" s="10">
-        <f t="shared" si="107"/>
-        <v>12</v>
-      </c>
-      <c r="BL10" s="10">
-        <f t="shared" si="107"/>
-        <v>13</v>
-      </c>
-      <c r="BM10" s="10">
-        <f t="shared" si="107"/>
-        <v>14</v>
-      </c>
-      <c r="BN10" s="10">
-        <f t="shared" si="107"/>
-        <v>15</v>
-      </c>
-      <c r="BO10" s="10">
-        <f t="shared" si="107"/>
-        <v>16</v>
-      </c>
-      <c r="BP10" s="10">
-        <f t="shared" si="107"/>
-        <v>17</v>
-      </c>
-      <c r="BQ10" s="10">
-        <f t="shared" si="107"/>
-        <v>18</v>
-      </c>
-      <c r="BR10" s="10">
-        <f t="shared" si="107"/>
-        <v>19</v>
-      </c>
-      <c r="BS10" s="42">
-        <f t="shared" si="107"/>
-        <v>20</v>
-      </c>
-      <c r="BT10" s="42">
-        <f t="shared" si="107"/>
-        <v>21</v>
-      </c>
-      <c r="BU10" s="42">
-        <f t="shared" si="107"/>
-        <v>22</v>
-      </c>
-      <c r="BV10" s="42">
-        <f t="shared" si="107"/>
-        <v>23</v>
-      </c>
-      <c r="BW10" s="42">
-        <f t="shared" si="107"/>
-        <v>24</v>
-      </c>
       <c r="BX10" s="10">
-        <f t="shared" ref="BX10:DR10" si="108">DAY(BX7)</f>
-        <v>25</v>
-      </c>
-      <c r="BY10" s="10">
         <f t="shared" si="108"/>
         <v>26</v>
       </c>
+      <c r="BY10" s="43">
+        <f t="shared" si="108"/>
+        <v>27</v>
+      </c>
       <c r="BZ10" s="43">
         <f t="shared" si="108"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA10" s="43">
         <f t="shared" si="108"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CB10" s="43">
         <f t="shared" si="108"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CC10" s="43">
         <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="CD10" s="10">
+        <f t="shared" si="108"/>
+        <v>2</v>
+      </c>
+      <c r="CE10" s="10">
+        <f t="shared" si="108"/>
+        <v>3</v>
+      </c>
+      <c r="CF10" s="10">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
+      <c r="CG10" s="10">
+        <f t="shared" si="108"/>
+        <v>5</v>
+      </c>
+      <c r="CH10" s="10">
+        <f t="shared" si="108"/>
+        <v>6</v>
+      </c>
+      <c r="CI10" s="10">
+        <f t="shared" si="108"/>
+        <v>7</v>
+      </c>
+      <c r="CJ10" s="10">
+        <f t="shared" si="108"/>
+        <v>8</v>
+      </c>
+      <c r="CK10" s="10">
+        <f t="shared" si="108"/>
+        <v>9</v>
+      </c>
+      <c r="CL10" s="10">
+        <f t="shared" si="108"/>
+        <v>10</v>
+      </c>
+      <c r="CM10" s="10">
+        <f t="shared" si="108"/>
+        <v>11</v>
+      </c>
+      <c r="CN10" s="10">
+        <f t="shared" si="108"/>
+        <v>12</v>
+      </c>
+      <c r="CO10" s="10">
+        <f t="shared" si="108"/>
+        <v>13</v>
+      </c>
+      <c r="CP10" s="10">
+        <f t="shared" si="108"/>
+        <v>14</v>
+      </c>
+      <c r="CQ10" s="10">
+        <f t="shared" si="108"/>
+        <v>15</v>
+      </c>
+      <c r="CR10" s="10">
+        <f t="shared" si="108"/>
+        <v>16</v>
+      </c>
+      <c r="CS10" s="10">
+        <f t="shared" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="CT10" s="10">
+        <f t="shared" si="108"/>
+        <v>18</v>
+      </c>
+      <c r="CU10" s="10">
+        <f t="shared" si="108"/>
+        <v>19</v>
+      </c>
+      <c r="CV10" s="10">
+        <f t="shared" si="108"/>
+        <v>20</v>
+      </c>
+      <c r="CW10" s="10">
+        <f t="shared" si="108"/>
+        <v>21</v>
+      </c>
+      <c r="CX10" s="10">
+        <f t="shared" si="108"/>
+        <v>22</v>
+      </c>
+      <c r="CY10" s="10">
+        <f t="shared" si="108"/>
+        <v>23</v>
+      </c>
+      <c r="CZ10" s="10">
+        <f t="shared" si="108"/>
+        <v>24</v>
+      </c>
+      <c r="DA10" s="10">
+        <f t="shared" si="108"/>
+        <v>25</v>
+      </c>
+      <c r="DB10" s="10">
+        <f t="shared" si="108"/>
+        <v>26</v>
+      </c>
+      <c r="DC10" s="10">
+        <f t="shared" si="108"/>
+        <v>27</v>
+      </c>
+      <c r="DD10" s="10">
+        <f t="shared" si="108"/>
+        <v>28</v>
+      </c>
+      <c r="DE10" s="10">
+        <f t="shared" si="108"/>
+        <v>29</v>
+      </c>
+      <c r="DF10" s="10">
+        <f t="shared" si="108"/>
         <v>30</v>
       </c>
-      <c r="CD10" s="43">
+      <c r="DG10" s="10">
+        <f t="shared" si="108"/>
+        <v>31</v>
+      </c>
+      <c r="DH10" s="10">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="CE10" s="10">
+      <c r="DI10" s="10">
         <f t="shared" si="108"/>
         <v>2</v>
       </c>
-      <c r="CF10" s="10">
+      <c r="DJ10" s="10">
         <f t="shared" si="108"/>
         <v>3</v>
       </c>
-      <c r="CG10" s="10">
+      <c r="DK10" s="10">
         <f t="shared" si="108"/>
         <v>4</v>
       </c>
-      <c r="CH10" s="10">
+      <c r="DL10" s="10">
         <f t="shared" si="108"/>
         <v>5</v>
       </c>
-      <c r="CI10" s="10">
+      <c r="DM10" s="10">
         <f t="shared" si="108"/>
         <v>6</v>
       </c>
-      <c r="CJ10" s="10">
+      <c r="DN10" s="10">
         <f t="shared" si="108"/>
         <v>7</v>
       </c>
-      <c r="CK10" s="10">
+      <c r="DO10" s="10">
         <f t="shared" si="108"/>
         <v>8</v>
       </c>
-      <c r="CL10" s="10">
+      <c r="DP10" s="10">
         <f t="shared" si="108"/>
         <v>9</v>
       </c>
-      <c r="CM10" s="10">
+      <c r="DQ10" s="10">
         <f t="shared" si="108"/>
         <v>10</v>
       </c>
-      <c r="CN10" s="10">
-        <f t="shared" si="108"/>
-        <v>11</v>
-      </c>
-      <c r="CO10" s="10">
-        <f t="shared" si="108"/>
-        <v>12</v>
-      </c>
-      <c r="CP10" s="10">
-        <f t="shared" si="108"/>
-        <v>13</v>
-      </c>
-      <c r="CQ10" s="10">
-        <f t="shared" si="108"/>
-        <v>14</v>
-      </c>
-      <c r="CR10" s="10">
-        <f t="shared" si="108"/>
-        <v>15</v>
-      </c>
-      <c r="CS10" s="10">
-        <f t="shared" si="108"/>
-        <v>16</v>
-      </c>
-      <c r="CT10" s="10">
-        <f t="shared" si="108"/>
-        <v>17</v>
-      </c>
-      <c r="CU10" s="10">
-        <f t="shared" si="108"/>
-        <v>18</v>
-      </c>
-      <c r="CV10" s="10">
-        <f t="shared" si="108"/>
-        <v>19</v>
-      </c>
-      <c r="CW10" s="10">
-        <f t="shared" si="108"/>
-        <v>20</v>
-      </c>
-      <c r="CX10" s="10">
-        <f t="shared" si="108"/>
-        <v>21</v>
-      </c>
-      <c r="CY10" s="10">
-        <f t="shared" si="108"/>
-        <v>22</v>
-      </c>
-      <c r="CZ10" s="10">
-        <f t="shared" si="108"/>
-        <v>23</v>
-      </c>
-      <c r="DA10" s="10">
-        <f t="shared" si="108"/>
-        <v>24</v>
-      </c>
-      <c r="DB10" s="10">
-        <f t="shared" si="108"/>
-        <v>25</v>
-      </c>
-      <c r="DC10" s="10">
-        <f t="shared" si="108"/>
-        <v>26</v>
-      </c>
-      <c r="DD10" s="10">
-        <f t="shared" si="108"/>
-        <v>27</v>
-      </c>
-      <c r="DE10" s="10">
-        <f t="shared" si="108"/>
-        <v>28</v>
-      </c>
-      <c r="DF10" s="10">
-        <f t="shared" si="108"/>
-        <v>29</v>
-      </c>
-      <c r="DG10" s="10">
-        <f t="shared" si="108"/>
-        <v>30</v>
-      </c>
-      <c r="DH10" s="10">
-        <f t="shared" si="108"/>
-        <v>31</v>
-      </c>
-      <c r="DI10" s="10">
-        <f t="shared" si="108"/>
-        <v>1</v>
-      </c>
-      <c r="DJ10" s="10">
-        <f t="shared" si="108"/>
-        <v>2</v>
-      </c>
-      <c r="DK10" s="10">
-        <f t="shared" si="108"/>
-        <v>3</v>
-      </c>
-      <c r="DL10" s="10">
-        <f t="shared" si="108"/>
-        <v>4</v>
-      </c>
-      <c r="DM10" s="10">
-        <f t="shared" si="108"/>
-        <v>5</v>
-      </c>
-      <c r="DN10" s="10">
-        <f t="shared" si="108"/>
-        <v>6</v>
-      </c>
-      <c r="DO10" s="10">
-        <f t="shared" si="108"/>
-        <v>7</v>
-      </c>
-      <c r="DP10" s="10">
-        <f t="shared" si="108"/>
-        <v>8</v>
-      </c>
-      <c r="DQ10" s="10">
-        <f t="shared" si="108"/>
-        <v>9</v>
-      </c>
-      <c r="DR10" s="10">
-        <f t="shared" si="108"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:151" s="2" customFormat="1" ht="13" customHeight="1">
+    </row>
+    <row r="11" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A11" s="19">
         <v>1</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="22"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -3690,1788 +4694,1933 @@
       <c r="DO11" s="23"/>
       <c r="DP11" s="23"/>
       <c r="DQ11" s="23"/>
-      <c r="DR11" s="23"/>
-    </row>
-    <row r="12" spans="1:151" ht="13" customHeight="1">
+    </row>
+    <row r="12" spans="1:150" ht="13" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="31">
+      <c r="D12" s="31">
         <v>42492</v>
       </c>
-      <c r="F12" s="12">
+      <c r="E12" s="12">
         <v>7</v>
       </c>
-      <c r="G12" s="35">
-        <f t="shared" ref="G12:G17" si="109">IF(D12="","",IF($E$5="OUI",WORKDAY(E12,IF(WEEKDAY(E12,2)&gt;=6,F12,F12-1)),E12+F12-1))</f>
+      <c r="F12" s="35">
+        <f t="shared" ref="F12:F16" si="109">IF(C12="","",IF($D$5="OUI",WORKDAY(D12,IF(WEEKDAY(D12,2)&gt;=6,E12,E12-1)),D12+E12-1))</f>
         <v>42498</v>
       </c>
-      <c r="H12" s="39">
+      <c r="G12" s="39">
         <v>0</v>
       </c>
-      <c r="I12" s="18">
-        <f t="shared" ref="I12" si="110">E12+H12*(G12-E12)</f>
+      <c r="H12" s="18">
+        <f t="shared" ref="H12" si="110">D12+G12*(F12-D12)</f>
         <v>42492</v>
       </c>
     </row>
-    <row r="13" spans="1:151" ht="13" customHeight="1">
+    <row r="13" spans="1:150" ht="13" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="31">
+      <c r="D13" s="31">
         <v>42485</v>
       </c>
-      <c r="F13" s="12">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="35">
+      <c r="F13" s="35">
         <f t="shared" si="109"/>
         <v>42485</v>
       </c>
-      <c r="H13" s="39">
+      <c r="G13" s="39">
         <v>1</v>
       </c>
-      <c r="I13" s="18">
-        <f t="shared" ref="I13:I14" si="111">E13+H13*(G13-E13)</f>
+      <c r="H13" s="18">
+        <f t="shared" ref="H13:H14" si="111">D13+G13*(F13-D13)</f>
         <v>42485</v>
       </c>
     </row>
-    <row r="14" spans="1:151" ht="13" customHeight="1">
+    <row r="14" spans="1:150" ht="13" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="31">
+      <c r="D14" s="31">
         <v>42485</v>
       </c>
-      <c r="F14" s="12">
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="G14" s="35">
+      <c r="F14" s="35">
         <f t="shared" si="109"/>
         <v>42486</v>
       </c>
-      <c r="H14" s="39">
+      <c r="G14" s="39">
         <v>1</v>
       </c>
-      <c r="I14" s="18">
+      <c r="H14" s="18">
         <f t="shared" si="111"/>
         <v>42486</v>
       </c>
     </row>
-    <row r="15" spans="1:151" ht="13" customHeight="1">
+    <row r="15" spans="1:150" ht="13" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="31">
+      <c r="D15" s="31">
         <v>42485</v>
       </c>
-      <c r="F15" s="12">
+      <c r="E15" s="12">
         <v>2</v>
       </c>
-      <c r="G15" s="35">
+      <c r="F15" s="35">
         <f t="shared" si="109"/>
         <v>42486</v>
       </c>
-      <c r="H15" s="39">
+      <c r="G15" s="39">
         <v>1</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-    </row>
-    <row r="16" spans="1:151" ht="13" customHeight="1">
+      <c r="H15" s="18"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:150" ht="13" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="31">
+      <c r="D16" s="31">
         <v>42500</v>
       </c>
-      <c r="F16" s="12">
+      <c r="E16" s="12">
         <v>6</v>
       </c>
-      <c r="G16" s="35">
+      <c r="F16" s="35">
         <f t="shared" si="109"/>
         <v>42505</v>
       </c>
-      <c r="H16" s="39">
+      <c r="G16" s="39">
         <v>0</v>
       </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="35">
-        <f t="shared" si="109"/>
-        <v>-1</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:121" s="2" customFormat="1" ht="14" customHeight="1">
+      <c r="A17" s="19">
+        <v>2</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="23"/>
+      <c r="BM17" s="23"/>
+      <c r="BN17" s="23"/>
+      <c r="BO17" s="23"/>
+      <c r="BP17" s="23"/>
+      <c r="BQ17" s="23"/>
+      <c r="BR17" s="23"/>
+      <c r="BS17" s="23"/>
+      <c r="BT17" s="23"/>
+      <c r="BU17" s="23"/>
+      <c r="BV17" s="23"/>
+      <c r="BW17" s="23"/>
+      <c r="BX17" s="23"/>
+      <c r="BY17" s="23"/>
+      <c r="BZ17" s="23"/>
+      <c r="CA17" s="23"/>
+      <c r="CB17" s="23"/>
+      <c r="CC17" s="23"/>
+      <c r="CD17" s="23"/>
+      <c r="CE17" s="23"/>
+      <c r="CF17" s="23"/>
+      <c r="CG17" s="23"/>
+      <c r="CH17" s="23"/>
+      <c r="CI17" s="23"/>
+      <c r="CJ17" s="23"/>
+      <c r="CK17" s="23"/>
+      <c r="CL17" s="23"/>
+      <c r="CM17" s="23"/>
+      <c r="CN17" s="23"/>
+      <c r="CO17" s="23"/>
+      <c r="CP17" s="23"/>
+      <c r="CQ17" s="23"/>
+      <c r="CR17" s="23"/>
+      <c r="CS17" s="23"/>
+      <c r="CT17" s="23"/>
+      <c r="CU17" s="23"/>
+      <c r="CV17" s="23"/>
+      <c r="CW17" s="23"/>
+      <c r="CX17" s="23"/>
+      <c r="CY17" s="23"/>
+      <c r="CZ17" s="23"/>
+      <c r="DA17" s="23"/>
+      <c r="DB17" s="23"/>
+      <c r="DC17" s="23"/>
+      <c r="DD17" s="23"/>
+      <c r="DE17" s="23"/>
+      <c r="DF17" s="23"/>
+      <c r="DG17" s="23"/>
+      <c r="DH17" s="23"/>
+      <c r="DI17" s="23"/>
+      <c r="DJ17" s="23"/>
+      <c r="DK17" s="23"/>
+      <c r="DL17" s="23"/>
+      <c r="DM17" s="23"/>
+      <c r="DN17" s="23"/>
+      <c r="DO17" s="23"/>
+      <c r="DP17" s="23"/>
+      <c r="DQ17" s="23"/>
+    </row>
+    <row r="18" spans="1:121" ht="13" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="31">
+        <v>42499</v>
+      </c>
+      <c r="E18" s="45">
+        <v>16</v>
+      </c>
+      <c r="F18" s="35">
+        <f t="shared" ref="F18:F46" si="112">IF(C18="","",IF($D$5="OUI",WORKDAY(D18,IF(WEEKDAY(D18,2)&gt;=6,E18,E18-1)),D18+E18-1))</f>
+        <v>42514</v>
+      </c>
+      <c r="G18" s="39">
         <v>0</v>
       </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:122" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="19">
-        <v>2</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="23"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="23"/>
-      <c r="AX18" s="23"/>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="23"/>
-      <c r="BA18" s="23"/>
-      <c r="BB18" s="23"/>
-      <c r="BC18" s="23"/>
-      <c r="BD18" s="23"/>
-      <c r="BE18" s="23"/>
-      <c r="BF18" s="23"/>
-      <c r="BG18" s="23"/>
-      <c r="BH18" s="23"/>
-      <c r="BI18" s="23"/>
-      <c r="BJ18" s="23"/>
-      <c r="BK18" s="23"/>
-      <c r="BL18" s="23"/>
-      <c r="BM18" s="23"/>
-      <c r="BN18" s="23"/>
-      <c r="BO18" s="23"/>
-      <c r="BP18" s="23"/>
-      <c r="BQ18" s="23"/>
-      <c r="BR18" s="23"/>
-      <c r="BS18" s="23"/>
-      <c r="BT18" s="23"/>
-      <c r="BU18" s="23"/>
-      <c r="BV18" s="23"/>
-      <c r="BW18" s="23"/>
-      <c r="BX18" s="23"/>
-      <c r="BY18" s="23"/>
-      <c r="BZ18" s="23"/>
-      <c r="CA18" s="23"/>
-      <c r="CB18" s="23"/>
-      <c r="CC18" s="23"/>
-      <c r="CD18" s="23"/>
-      <c r="CE18" s="23"/>
-      <c r="CF18" s="23"/>
-      <c r="CG18" s="23"/>
-      <c r="CH18" s="23"/>
-      <c r="CI18" s="23"/>
-      <c r="CJ18" s="23"/>
-      <c r="CK18" s="23"/>
-      <c r="CL18" s="23"/>
-      <c r="CM18" s="23"/>
-      <c r="CN18" s="23"/>
-      <c r="CO18" s="23"/>
-      <c r="CP18" s="23"/>
-      <c r="CQ18" s="23"/>
-      <c r="CR18" s="23"/>
-      <c r="CS18" s="23"/>
-      <c r="CT18" s="23"/>
-      <c r="CU18" s="23"/>
-      <c r="CV18" s="23"/>
-      <c r="CW18" s="23"/>
-      <c r="CX18" s="23"/>
-      <c r="CY18" s="23"/>
-      <c r="CZ18" s="23"/>
-      <c r="DA18" s="23"/>
-      <c r="DB18" s="23"/>
-      <c r="DC18" s="23"/>
-      <c r="DD18" s="23"/>
-      <c r="DE18" s="23"/>
-      <c r="DF18" s="23"/>
-      <c r="DG18" s="23"/>
-      <c r="DH18" s="23"/>
-      <c r="DI18" s="23"/>
-      <c r="DJ18" s="23"/>
-      <c r="DK18" s="23"/>
-      <c r="DL18" s="23"/>
-      <c r="DM18" s="23"/>
-      <c r="DN18" s="23"/>
-      <c r="DO18" s="23"/>
-      <c r="DP18" s="23"/>
-      <c r="DQ18" s="23"/>
-      <c r="DR18" s="23"/>
-    </row>
-    <row r="19" spans="1:122" ht="13" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="H18" s="18">
+        <f t="shared" ref="H18:H40" si="113">D18+G18*(F18-D18)</f>
         <v>42499</v>
       </c>
-      <c r="F19" s="45">
-        <f>8+4+6</f>
-        <v>18</v>
-      </c>
-      <c r="G19" s="35">
-        <f t="shared" ref="G19:G34" si="112">IF(D19="","",IF($E$5="OUI",WORKDAY(E19,IF(WEEKDAY(E19,2)&gt;=6,F19,F19-1)),E19+F19-1))</f>
-        <v>42516</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
-        <f t="shared" ref="I19:I37" si="113">E19+H19*(G19-E19)</f>
-        <v>42499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:122" hidden="1">
-      <c r="B20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="19" spans="1:121" hidden="1">
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="35">
+      <c r="D19" s="31"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H20" s="39">
+      <c r="G19" s="39">
         <v>0</v>
       </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:122" hidden="1">
-      <c r="B21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:121" hidden="1">
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="35">
+      <c r="D20" s="31"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H21" s="39">
+      <c r="G20" s="39">
         <v>0</v>
       </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:122" hidden="1">
-      <c r="B22" s="26" t="s">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:121" hidden="1">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="35">
+      <c r="D21" s="31"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H22" s="39">
+      <c r="G21" s="39">
         <v>0</v>
       </c>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:122" hidden="1">
-      <c r="B23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="35">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:121" hidden="1">
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H23" s="39">
+      <c r="G22" s="39">
         <v>0</v>
       </c>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:122" hidden="1">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:121" hidden="1">
+      <c r="B23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="35">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:121" ht="13" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="B24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:122" ht="13" customHeight="1">
+      <c r="C24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="31">
+        <v>42515</v>
+      </c>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="35">
+        <f t="shared" si="112"/>
+        <v>42516</v>
+      </c>
+      <c r="G24" s="39">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="AR24" s="144"/>
+      <c r="AS24" s="144"/>
+    </row>
+    <row r="25" spans="1:121" ht="13" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="31">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="31">
         <v>42507</v>
       </c>
-      <c r="F25" s="46">
-        <f>2*1</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="35">
+      <c r="E25" s="46">
+        <v>10</v>
+      </c>
+      <c r="F25" s="35">
         <f t="shared" si="112"/>
-        <v>42508</v>
-      </c>
-      <c r="H25" s="39">
+        <v>42516</v>
+      </c>
+      <c r="G25" s="39">
         <v>0</v>
       </c>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:121" ht="13" hidden="1" customHeight="1">
       <c r="B26" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="35">
+        <v>78</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H26" s="39">
+      <c r="G26" s="39">
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:121" ht="13" hidden="1" customHeight="1">
       <c r="B27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="35">
+        <v>78</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H27" s="39">
+      <c r="G27" s="39">
         <v>0</v>
       </c>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:122" ht="13" hidden="1" customHeight="1">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:121" ht="13" hidden="1" customHeight="1">
       <c r="B28" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="35">
+        <v>78</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H28" s="39">
+      <c r="G28" s="39">
         <v>0</v>
       </c>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:122" hidden="1">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:121" hidden="1">
       <c r="B29" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="35">
+        <v>78</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H29" s="39">
+      <c r="G29" s="39">
         <v>0</v>
       </c>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:122" hidden="1">
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:121" ht="1" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="35">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H30" s="39">
+      <c r="G30" s="39">
         <v>0</v>
       </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:122">
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:121" ht="13" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31">
+        <v>42517</v>
+      </c>
+      <c r="E31" s="12">
+        <v>2</v>
+      </c>
+      <c r="F31" s="35">
+        <f t="shared" ref="F31" si="114">IF(C31="","",IF($D$5="OUI",WORKDAY(D31,IF(WEEKDAY(D31,2)&gt;=6,E31,E31-1)),D31+E31-1))</f>
+        <v>42518</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:121">
+      <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="B32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="31">
         <v>42510</v>
       </c>
-      <c r="F31" s="46">
+      <c r="E32" s="46">
         <f>2*1*2</f>
         <v>4</v>
       </c>
-      <c r="G31" s="35">
+      <c r="F32" s="35">
         <f t="shared" si="112"/>
         <v>42513</v>
       </c>
-      <c r="H31" s="39">
+      <c r="G32" s="39">
         <v>0</v>
       </c>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:122" hidden="1">
-      <c r="A32" s="7" t="s">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:121" hidden="1">
+      <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="35">
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H32" s="39">
+      <c r="G33" s="39">
         <v>0</v>
       </c>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:122" hidden="1">
-      <c r="A33" s="7" t="s">
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:121" hidden="1">
+      <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="35">
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="35">
         <f t="shared" si="112"/>
         <v>-1</v>
       </c>
-      <c r="H33" s="39">
+      <c r="G34" s="39">
         <v>0</v>
       </c>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:122">
-      <c r="A34" s="7" t="s">
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:121" ht="13" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="31">
+        <v>42514</v>
+      </c>
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="F35" s="35">
+        <f t="shared" si="112"/>
+        <v>42515</v>
+      </c>
+      <c r="G35" s="39">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:121" ht="12" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="31">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="31">
         <v>42518</v>
       </c>
-      <c r="F34" s="45">
+      <c r="E36" s="45">
         <f>2*1+2*1</f>
         <v>4</v>
       </c>
-      <c r="G34" s="35">
+      <c r="F36" s="35">
         <f t="shared" si="112"/>
         <v>42521</v>
       </c>
-      <c r="H34" s="39">
+      <c r="G36" s="39">
         <v>0</v>
       </c>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:122" hidden="1">
-      <c r="B35" s="26" t="s">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:121" hidden="1">
+      <c r="B37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="35">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:121" hidden="1">
+      <c r="B38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:122" hidden="1">
-      <c r="B36" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:122">
-      <c r="A37" s="7" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="35">
+        <f t="shared" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:121" ht="13" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="31">
+        <v>42522</v>
+      </c>
+      <c r="E39" s="12">
+        <v>2</v>
+      </c>
+      <c r="F39" s="35">
+        <f t="shared" ref="F39" si="115">IF(C39="","",IF($D$5="OUI",WORKDAY(D39,IF(WEEKDAY(D39,2)&gt;=6,E39,E39-1)),D39+E39-1))</f>
+        <v>42523</v>
+      </c>
+      <c r="G39" s="39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:121">
+      <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="31">
+      <c r="B40" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="31">
         <v>42518</v>
       </c>
-      <c r="F37" s="45">
-        <f>0.5+6+2</f>
-        <v>8.5</v>
-      </c>
-      <c r="G37" s="35">
-        <f>IF(D38="","",IF($E$5="OUI",WORKDAY(E37,IF(WEEKDAY(E37,2)&gt;=6,F37,F37-1)),E37+F37-1))</f>
-        <v>42525.5</v>
-      </c>
-      <c r="H37" s="39">
+      <c r="E40" s="45">
+        <v>11.5</v>
+      </c>
+      <c r="F40" s="35">
+        <f t="shared" si="112"/>
+        <v>42528.5</v>
+      </c>
+      <c r="G40" s="39">
         <v>0</v>
       </c>
-      <c r="I37" s="18">
+      <c r="H40" s="18">
         <f t="shared" si="113"/>
         <v>42518</v>
       </c>
     </row>
-    <row r="38" spans="1:122" hidden="1">
-      <c r="A38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="31">
+    <row r="41" spans="1:121" hidden="1">
+      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="31">
         <v>42519</v>
       </c>
-      <c r="F38" s="45">
+      <c r="E41" s="45">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="G38" s="35">
-        <f t="shared" ref="G38:G41" si="114">IF(D39="","",IF($E$5="OUI",WORKDAY(E38,IF(WEEKDAY(E38,2)&gt;=6,F38,F38-1)),E38+F38-1))</f>
+      <c r="F41" s="35">
+        <f t="shared" si="112"/>
         <v>42522</v>
       </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:122" hidden="1">
-      <c r="B39" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="26" t="s">
+      <c r="G41" s="39"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:121" hidden="1">
+      <c r="B42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="31">
+        <v>42520</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="35">
+        <f t="shared" si="112"/>
+        <v>42519</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:121" hidden="1">
+      <c r="A43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="31">
+        <v>42521</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="35">
+        <f t="shared" si="112"/>
+        <v>42520</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:121" hidden="1">
+      <c r="A44" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="31">
+        <v>42524</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2</v>
+      </c>
+      <c r="F44" s="35">
+        <f t="shared" si="112"/>
+        <v>42525</v>
+      </c>
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:121" ht="13" customHeight="1">
+      <c r="A45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="31">
+        <v>42529</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2</v>
+      </c>
+      <c r="F45" s="35">
+        <f t="shared" si="112"/>
+        <v>42530</v>
+      </c>
+      <c r="G45" s="39">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:121">
+      <c r="A46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="31">
-        <v>42520</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="35">
-        <f t="shared" si="114"/>
-        <v>42519</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:122" hidden="1">
-      <c r="A40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="31">
-        <v>42521</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="35">
-        <f t="shared" si="114"/>
-        <v>42520</v>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:122">
-      <c r="A41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="31">
-        <v>42524</v>
-      </c>
-      <c r="F41" s="12">
-        <v>2</v>
-      </c>
-      <c r="G41" s="35">
-        <f t="shared" si="114"/>
-        <v>42525</v>
-      </c>
-      <c r="H41" s="39">
+      <c r="D46" s="31">
+        <v>42530</v>
+      </c>
+      <c r="E46" s="12">
+        <v>5</v>
+      </c>
+      <c r="F46" s="35">
+        <f t="shared" si="112"/>
+        <v>42534</v>
+      </c>
+      <c r="G46" s="39">
         <v>0</v>
       </c>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A42" s="19">
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:121" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A47" s="19">
         <v>3</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="20" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
-      <c r="AG42" s="23"/>
-      <c r="AH42" s="23"/>
-      <c r="AI42" s="23"/>
-      <c r="AJ42" s="23"/>
-      <c r="AK42" s="23"/>
-      <c r="AL42" s="23"/>
-      <c r="AM42" s="23"/>
-      <c r="AN42" s="23"/>
-      <c r="AO42" s="23"/>
-      <c r="AP42" s="23"/>
-      <c r="AQ42" s="23"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="23"/>
-      <c r="AT42" s="23"/>
-      <c r="AU42" s="23"/>
-      <c r="AV42" s="23"/>
-      <c r="AW42" s="23"/>
-      <c r="AX42" s="23"/>
-      <c r="AY42" s="23"/>
-      <c r="AZ42" s="23"/>
-      <c r="BA42" s="23"/>
-      <c r="BB42" s="23"/>
-      <c r="BC42" s="23"/>
-      <c r="BD42" s="23"/>
-      <c r="BE42" s="23"/>
-      <c r="BF42" s="23"/>
-      <c r="BG42" s="23"/>
-      <c r="BH42" s="23"/>
-      <c r="BI42" s="23"/>
-      <c r="BJ42" s="23"/>
-      <c r="BK42" s="23"/>
-      <c r="BL42" s="23"/>
-      <c r="BM42" s="23"/>
-      <c r="BN42" s="23"/>
-      <c r="BO42" s="23"/>
-      <c r="BP42" s="23"/>
-      <c r="BQ42" s="23"/>
-      <c r="BR42" s="23"/>
-      <c r="BS42" s="23"/>
-      <c r="BT42" s="23"/>
-      <c r="BU42" s="23"/>
-      <c r="BV42" s="23"/>
-      <c r="BW42" s="23"/>
-      <c r="BX42" s="23"/>
-      <c r="BY42" s="23"/>
-      <c r="BZ42" s="23"/>
-      <c r="CA42" s="23"/>
-      <c r="CB42" s="23"/>
-      <c r="CC42" s="23"/>
-      <c r="CD42" s="23"/>
-      <c r="CE42" s="23"/>
-      <c r="CF42" s="23"/>
-      <c r="CG42" s="23"/>
-      <c r="CH42" s="23"/>
-      <c r="CI42" s="23"/>
-      <c r="CJ42" s="23"/>
-      <c r="CK42" s="23"/>
-      <c r="CL42" s="23"/>
-      <c r="CM42" s="23"/>
-      <c r="CN42" s="23"/>
-      <c r="CO42" s="23"/>
-      <c r="CP42" s="23"/>
-      <c r="CQ42" s="23"/>
-      <c r="CR42" s="23"/>
-      <c r="CS42" s="23"/>
-      <c r="CT42" s="23"/>
-      <c r="CU42" s="23"/>
-      <c r="CV42" s="23"/>
-      <c r="CW42" s="23"/>
-      <c r="CX42" s="23"/>
-      <c r="CY42" s="23"/>
-      <c r="CZ42" s="23"/>
-      <c r="DA42" s="23"/>
-      <c r="DB42" s="23"/>
-      <c r="DC42" s="23"/>
-      <c r="DD42" s="23"/>
-      <c r="DE42" s="23"/>
-      <c r="DF42" s="23"/>
-      <c r="DG42" s="23"/>
-      <c r="DH42" s="23"/>
-      <c r="DI42" s="23"/>
-      <c r="DJ42" s="23"/>
-      <c r="DK42" s="23"/>
-      <c r="DL42" s="23"/>
-      <c r="DM42" s="23"/>
-      <c r="DN42" s="23"/>
-      <c r="DO42" s="23"/>
-      <c r="DP42" s="23"/>
-      <c r="DQ42" s="23"/>
-      <c r="DR42" s="23"/>
-    </row>
-    <row r="43" spans="1:122" ht="13" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23"/>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="AX47" s="23"/>
+      <c r="AY47" s="23"/>
+      <c r="AZ47" s="23"/>
+      <c r="BA47" s="23"/>
+      <c r="BB47" s="23"/>
+      <c r="BC47" s="23"/>
+      <c r="BD47" s="23"/>
+      <c r="BE47" s="23"/>
+      <c r="BF47" s="23"/>
+      <c r="BG47" s="23"/>
+      <c r="BH47" s="23"/>
+      <c r="BI47" s="23"/>
+      <c r="BJ47" s="23"/>
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="23"/>
+      <c r="BM47" s="23"/>
+      <c r="BN47" s="23"/>
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="23"/>
+      <c r="BQ47" s="23"/>
+      <c r="BR47" s="23"/>
+      <c r="BS47" s="23"/>
+      <c r="BT47" s="23"/>
+      <c r="BU47" s="23"/>
+      <c r="BV47" s="23"/>
+      <c r="BW47" s="23"/>
+      <c r="BX47" s="23"/>
+      <c r="BY47" s="23"/>
+      <c r="BZ47" s="23"/>
+      <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
+      <c r="CD47" s="23"/>
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
+      <c r="CH47" s="23"/>
+      <c r="CI47" s="23"/>
+      <c r="CJ47" s="23"/>
+      <c r="CK47" s="23"/>
+      <c r="CL47" s="23"/>
+      <c r="CM47" s="23"/>
+      <c r="CN47" s="23"/>
+      <c r="CO47" s="23"/>
+      <c r="CP47" s="23"/>
+      <c r="CQ47" s="23"/>
+      <c r="CR47" s="23"/>
+      <c r="CS47" s="23"/>
+      <c r="CT47" s="23"/>
+      <c r="CU47" s="23"/>
+      <c r="CV47" s="23"/>
+      <c r="CW47" s="23"/>
+      <c r="CX47" s="23"/>
+      <c r="CY47" s="23"/>
+      <c r="CZ47" s="23"/>
+      <c r="DA47" s="23"/>
+      <c r="DB47" s="23"/>
+      <c r="DC47" s="23"/>
+      <c r="DD47" s="23"/>
+      <c r="DE47" s="23"/>
+      <c r="DF47" s="23"/>
+      <c r="DG47" s="23"/>
+      <c r="DH47" s="23"/>
+      <c r="DI47" s="23"/>
+      <c r="DJ47" s="23"/>
+      <c r="DK47" s="23"/>
+      <c r="DL47" s="23"/>
+      <c r="DM47" s="23"/>
+      <c r="DN47" s="23"/>
+      <c r="DO47" s="23"/>
+      <c r="DP47" s="23"/>
+      <c r="DQ47" s="23"/>
+    </row>
+    <row r="48" spans="1:121" ht="13" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="B48" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="31">
+      <c r="D48" s="31">
         <v>42500</v>
       </c>
-      <c r="F43" s="12">
+      <c r="E48" s="12">
         <v>6</v>
       </c>
-      <c r="G43" s="35">
-        <f>IF(D43="","",IF($E$5="OUI",WORKDAY(E43,IF(WEEKDAY(E43,2)&gt;=6,F43,F43-1)),E43+F43-1))</f>
+      <c r="F48" s="35">
+        <f>IF(C48="","",IF($D$5="OUI",WORKDAY(D48,IF(WEEKDAY(D48,2)&gt;=6,E48,E48-1)),D48+E48-1))</f>
         <v>42505</v>
       </c>
-      <c r="H43" s="39">
+      <c r="G48" s="39">
         <v>0</v>
       </c>
-      <c r="I43" s="18">
-        <f t="shared" ref="I43:I45" si="115">E43+H43*(G43-E43)</f>
+      <c r="H48" s="18">
+        <f t="shared" ref="H48:H50" si="116">D48+G48*(F48-D48)</f>
         <v>42500</v>
       </c>
     </row>
-    <row r="44" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A44" s="7" t="s">
+    <row r="49" spans="1:121" ht="13" hidden="1" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="35">
-        <f>IF(D44="","",IF($E$5="OUI",WORKDAY(E44,IF(WEEKDAY(E44,2)&gt;=6,F44,F44-1)),E44+F44-1))</f>
+      <c r="D49" s="31"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="35">
+        <f>IF(C49="","",IF($D$5="OUI",WORKDAY(D49,IF(WEEKDAY(D49,2)&gt;=6,E49,E49-1)),D49+E49-1))</f>
         <v>-1</v>
       </c>
-      <c r="H44" s="39">
+      <c r="G49" s="39">
         <v>0</v>
       </c>
-      <c r="I44" s="18">
-        <f t="shared" si="115"/>
+      <c r="H49" s="18">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:122" ht="13" customHeight="1">
-      <c r="A45" s="7" t="s">
+    <row r="50" spans="1:121" ht="13" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="11" t="s">
+      <c r="B50" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="31">
+      <c r="D50" s="31">
         <v>42556</v>
       </c>
-      <c r="F45" s="12">
+      <c r="E50" s="12">
         <v>16</v>
       </c>
-      <c r="G45" s="35">
-        <f>IF(D45="","",IF($E$5="OUI",WORKDAY(E45,IF(WEEKDAY(E45,2)&gt;=6,F45,F45-1)),E45+F45-1))</f>
+      <c r="F50" s="35">
+        <f>IF(C50="","",IF($D$5="OUI",WORKDAY(D50,IF(WEEKDAY(D50,2)&gt;=6,E50,E50-1)),D50+E50-1))</f>
         <v>42571</v>
       </c>
-      <c r="H45" s="39">
+      <c r="G50" s="39">
         <v>0</v>
       </c>
-      <c r="I45" s="18">
-        <f t="shared" si="115"/>
+      <c r="H50" s="18">
+        <f t="shared" si="116"/>
         <v>42556</v>
       </c>
     </row>
-    <row r="46" spans="1:122" s="2" customFormat="1" ht="13" customHeight="1">
-      <c r="A46" s="19">
+    <row r="51" spans="1:121" s="2" customFormat="1" ht="13" customHeight="1">
+      <c r="A51" s="19">
         <v>4</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="20" t="s">
+      <c r="B51" s="27"/>
+      <c r="C51" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="44">
+      <c r="D51" s="27"/>
+      <c r="E51" s="66">
+        <v>1</v>
+      </c>
+      <c r="F51" s="44">
         <v>42571</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="38"/>
-      <c r="AE46" s="38"/>
-      <c r="AF46" s="38"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="38"/>
-      <c r="AS46" s="38"/>
-      <c r="AT46" s="38"/>
-      <c r="AU46" s="38"/>
-      <c r="AV46" s="38"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="38"/>
-      <c r="BB46" s="38"/>
-      <c r="BC46" s="38"/>
-      <c r="BD46" s="38"/>
-      <c r="BE46" s="38"/>
-      <c r="BF46" s="38"/>
-      <c r="BG46" s="38"/>
-      <c r="BH46" s="38"/>
-      <c r="BI46" s="38"/>
-      <c r="BJ46" s="38"/>
-      <c r="BK46" s="38"/>
-      <c r="BL46" s="38"/>
-      <c r="BM46" s="38"/>
-      <c r="BN46" s="38"/>
-      <c r="BO46" s="38"/>
-      <c r="BP46" s="38"/>
-      <c r="BQ46" s="38"/>
-      <c r="BR46" s="38"/>
-      <c r="BS46" s="38"/>
-      <c r="BT46" s="38"/>
-      <c r="BU46" s="38"/>
-      <c r="BV46" s="38"/>
-      <c r="BW46" s="38"/>
-      <c r="BX46" s="38"/>
-      <c r="BY46" s="38"/>
-      <c r="BZ46" s="38"/>
-      <c r="CA46" s="38"/>
-      <c r="CB46" s="38"/>
-      <c r="CC46" s="38"/>
-      <c r="CD46" s="38"/>
-      <c r="CE46" s="38"/>
-      <c r="CF46" s="38"/>
-      <c r="CG46" s="38"/>
-      <c r="CH46" s="38"/>
-      <c r="CI46" s="38"/>
-      <c r="CJ46" s="38"/>
-      <c r="CK46" s="38"/>
-      <c r="CL46" s="38"/>
-      <c r="CM46" s="38"/>
-      <c r="CN46" s="38"/>
-      <c r="CO46" s="38"/>
-      <c r="CP46" s="38"/>
-      <c r="CQ46" s="38"/>
-      <c r="CR46" s="38"/>
-      <c r="CS46" s="38"/>
-      <c r="CT46" s="38"/>
-      <c r="CU46" s="38"/>
-      <c r="CV46" s="38"/>
-      <c r="CW46" s="47"/>
-      <c r="CX46" s="38"/>
-      <c r="CY46" s="38"/>
-      <c r="CZ46" s="38"/>
-      <c r="DA46" s="38"/>
-      <c r="DB46" s="38"/>
-      <c r="DC46" s="38"/>
-      <c r="DD46" s="38"/>
-      <c r="DE46" s="38"/>
-      <c r="DF46" s="38"/>
-      <c r="DG46" s="38"/>
-      <c r="DH46" s="38"/>
-      <c r="DI46" s="38"/>
-      <c r="DJ46" s="38"/>
-      <c r="DK46" s="38"/>
-      <c r="DL46" s="38"/>
-      <c r="DM46" s="38"/>
-      <c r="DN46" s="38"/>
-      <c r="DO46" s="23"/>
-      <c r="DP46" s="23"/>
-      <c r="DQ46" s="23"/>
-      <c r="DR46" s="23"/>
-    </row>
-    <row r="47" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A47" s="7" t="s">
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="38"/>
+      <c r="AE51" s="38"/>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="38"/>
+      <c r="AJ51" s="38"/>
+      <c r="AK51" s="38"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="38"/>
+      <c r="AN51" s="38"/>
+      <c r="AO51" s="38"/>
+      <c r="AP51" s="38"/>
+      <c r="AQ51" s="38"/>
+      <c r="AR51" s="38"/>
+      <c r="AS51" s="38"/>
+      <c r="AT51" s="38"/>
+      <c r="AU51" s="38"/>
+      <c r="AV51" s="38"/>
+      <c r="AW51" s="38"/>
+      <c r="AX51" s="38"/>
+      <c r="AY51" s="38"/>
+      <c r="AZ51" s="38"/>
+      <c r="BA51" s="38"/>
+      <c r="BB51" s="38"/>
+      <c r="BC51" s="38"/>
+      <c r="BD51" s="38"/>
+      <c r="BE51" s="38"/>
+      <c r="BF51" s="38"/>
+      <c r="BG51" s="38"/>
+      <c r="BH51" s="38"/>
+      <c r="BI51" s="38"/>
+      <c r="BJ51" s="38"/>
+      <c r="BK51" s="38"/>
+      <c r="BL51" s="38"/>
+      <c r="BM51" s="38"/>
+      <c r="BN51" s="38"/>
+      <c r="BO51" s="38"/>
+      <c r="BP51" s="38"/>
+      <c r="BQ51" s="38"/>
+      <c r="BR51" s="38"/>
+      <c r="BS51" s="38"/>
+      <c r="BT51" s="38"/>
+      <c r="BU51" s="38"/>
+      <c r="BV51" s="38"/>
+      <c r="BW51" s="38"/>
+      <c r="BX51" s="38"/>
+      <c r="BY51" s="38"/>
+      <c r="BZ51" s="38"/>
+      <c r="CA51" s="38"/>
+      <c r="CB51" s="38"/>
+      <c r="CC51" s="38"/>
+      <c r="CD51" s="38"/>
+      <c r="CE51" s="38"/>
+      <c r="CF51" s="38"/>
+      <c r="CG51" s="38"/>
+      <c r="CH51" s="38"/>
+      <c r="CI51" s="38"/>
+      <c r="CJ51" s="38"/>
+      <c r="CK51" s="38"/>
+      <c r="CL51" s="38"/>
+      <c r="CM51" s="38"/>
+      <c r="CN51" s="38"/>
+      <c r="CO51" s="38"/>
+      <c r="CP51" s="38"/>
+      <c r="CQ51" s="38"/>
+      <c r="CR51" s="38"/>
+      <c r="CS51" s="38"/>
+      <c r="CT51" s="38"/>
+      <c r="CU51" s="38"/>
+      <c r="CV51" s="47"/>
+      <c r="CW51" s="38"/>
+      <c r="CX51" s="38"/>
+      <c r="CY51" s="38"/>
+      <c r="CZ51" s="38"/>
+      <c r="DA51" s="38"/>
+      <c r="DB51" s="38"/>
+      <c r="DC51" s="38"/>
+      <c r="DD51" s="38"/>
+      <c r="DE51" s="38"/>
+      <c r="DF51" s="38"/>
+      <c r="DG51" s="38"/>
+      <c r="DH51" s="38"/>
+      <c r="DI51" s="38"/>
+      <c r="DJ51" s="38"/>
+      <c r="DK51" s="38"/>
+      <c r="DL51" s="38"/>
+      <c r="DM51" s="38"/>
+      <c r="DN51" s="23"/>
+      <c r="DO51" s="23"/>
+      <c r="DP51" s="23"/>
+      <c r="DQ51" s="23"/>
+    </row>
+    <row r="52" spans="1:121" ht="13" hidden="1" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="35">
-        <f>IF(D47="","",IF($E$5="OUI",WORKDAY(E47,IF(WEEKDAY(E47,2)&gt;=6,F47,F47-1)),E47+F47-1))</f>
+      <c r="D52" s="31"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="35">
+        <f>IF(C52="","",IF($D$5="OUI",WORKDAY(D52,IF(WEEKDAY(D52,2)&gt;=6,E52,E52-1)),D52+E52-1))</f>
         <v>-1</v>
       </c>
-      <c r="H47" s="39">
+      <c r="G52" s="39">
         <v>0</v>
       </c>
-      <c r="I47" s="18">
-        <f t="shared" ref="I47:I49" si="116">E47+H47*(G47-E47)</f>
+      <c r="H52" s="18">
+        <f t="shared" ref="H52:H54" si="117">D52+G52*(F52-D52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:122" ht="13" hidden="1" customHeight="1">
-      <c r="A48" s="7" t="s">
+    <row r="53" spans="1:121" ht="13" hidden="1" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="35" t="str">
-        <f>IF(D48="","",IF($E$5="OUI",WORKDAY(E48,IF(WEEKDAY(E48,2)&gt;=6,F48,F48-1)),E48+F48-1))</f>
-        <v/>
-      </c>
-      <c r="H48" s="39">
+      <c r="C53" s="11"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="35" t="str">
+        <f>IF(C53="","",IF($D$5="OUI",WORKDAY(D53,IF(WEEKDAY(D53,2)&gt;=6,E53,E53-1)),D53+E53-1))</f>
+        <v/>
+      </c>
+      <c r="G53" s="39">
         <v>0</v>
       </c>
-      <c r="I48" s="18" t="e">
-        <f t="shared" si="116"/>
+      <c r="H53" s="18" t="e">
+        <f t="shared" si="117"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13" hidden="1" customHeight="1">
-      <c r="A49" s="7" t="s">
+    <row r="54" spans="1:121" ht="13" hidden="1" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="35" t="str">
-        <f>IF(D49="","",IF($E$5="OUI",WORKDAY(E49,IF(WEEKDAY(E49,2)&gt;=6,F49,F49-1)),E49+F49-1))</f>
-        <v/>
-      </c>
-      <c r="H49" s="39">
+      <c r="C54" s="11"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="35" t="str">
+        <f>IF(C54="","",IF($D$5="OUI",WORKDAY(D54,IF(WEEKDAY(D54,2)&gt;=6,E54,E54-1)),D54+E54-1))</f>
+        <v/>
+      </c>
+      <c r="G54" s="39">
         <v>0</v>
       </c>
-      <c r="I49" s="18" t="e">
-        <f t="shared" si="116"/>
+      <c r="H54" s="18" t="e">
+        <f t="shared" si="117"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13" customHeight="1">
-      <c r="D50" s="11"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="35"/>
-      <c r="I50" s="18">
-        <f t="shared" ref="I50:I57" si="117">E50+H50*(G50-E50)</f>
+    <row r="55" spans="1:121" ht="13" customHeight="1">
+      <c r="C55" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="142">
+        <f>SUM(E16:E51)</f>
+        <v>95.5</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="H55" s="18">
+        <f t="shared" ref="H55:H62" si="118">D55+G55*(F55-D55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13" customHeight="1">
-      <c r="D51" s="11"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="35"/>
-      <c r="I51" s="18">
-        <f t="shared" si="117"/>
+    <row r="56" spans="1:121" ht="13" customHeight="1">
+      <c r="C56" s="11"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="35"/>
+      <c r="H56" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13" customHeight="1">
-      <c r="D52" s="11"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="35"/>
-      <c r="I52" s="18">
-        <f t="shared" si="117"/>
+    <row r="57" spans="1:121" ht="13" customHeight="1">
+      <c r="C57" s="11"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="35"/>
+      <c r="H57" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13" customHeight="1">
-      <c r="D53" s="11"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="35"/>
-      <c r="I53" s="18">
-        <f t="shared" si="117"/>
+    <row r="58" spans="1:121" ht="13" customHeight="1">
+      <c r="C58" s="11"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="35"/>
+      <c r="H58" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13" customHeight="1">
-      <c r="D54" s="11"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="35"/>
-      <c r="I54" s="18">
-        <f t="shared" si="117"/>
+    <row r="59" spans="1:121" ht="13" customHeight="1">
+      <c r="C59" s="11"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="35"/>
+      <c r="H59" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13" customHeight="1">
-      <c r="D55" s="11"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="35"/>
-      <c r="I55" s="18">
-        <f t="shared" si="117"/>
+    <row r="60" spans="1:121" ht="13" customHeight="1">
+      <c r="C60" s="11"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="35"/>
+      <c r="H60" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13" customHeight="1">
-      <c r="D56" s="11"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="35"/>
-      <c r="I56" s="18">
-        <f t="shared" si="117"/>
+    <row r="61" spans="1:121" ht="13" customHeight="1">
+      <c r="C61" s="11"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="35"/>
+      <c r="H61" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13" customHeight="1">
-      <c r="D57" s="11"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="35"/>
-      <c r="I57" s="18">
-        <f t="shared" si="117"/>
+    <row r="62" spans="1:121" ht="13" customHeight="1">
+      <c r="C62" s="11"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="35"/>
+      <c r="H62" s="18">
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13" customHeight="1">
-      <c r="G58" s="35" t="str">
-        <f t="shared" ref="G58:G89" si="118">IF(D58="","",IF($E$5="OUI",WORKDAY(E58,IF(WEEKDAY(E58,2)&gt;=6,F58,F58-1)),E58+F58-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13" customHeight="1">
-      <c r="G59" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13" customHeight="1">
-      <c r="G60" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13" customHeight="1">
-      <c r="G61" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13" customHeight="1">
-      <c r="G62" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13" customHeight="1">
-      <c r="G63" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13" customHeight="1">
-      <c r="G64" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="7:7" ht="13" customHeight="1">
-      <c r="G65" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="7:7" ht="13" customHeight="1">
-      <c r="G66" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="7:7" ht="13" customHeight="1">
-      <c r="G67" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="7:7" ht="13" customHeight="1">
-      <c r="G68" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="7:7" ht="13" customHeight="1">
-      <c r="G69" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="7:7" ht="13" customHeight="1">
-      <c r="G70" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="7:7" ht="13" customHeight="1">
-      <c r="G71" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="7:7" ht="13" customHeight="1">
-      <c r="G72" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="7:7" ht="13" customHeight="1">
-      <c r="G73" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="7:7" ht="13" customHeight="1">
-      <c r="G74" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="7:7" ht="13" customHeight="1">
-      <c r="G75" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="7:7" ht="13" customHeight="1">
-      <c r="G76" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="7:7" ht="13" customHeight="1">
-      <c r="G77" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="7:7" ht="13" customHeight="1">
-      <c r="G78" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="7:7" ht="13" customHeight="1">
-      <c r="G79" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="7:7" ht="13" customHeight="1">
-      <c r="G80" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="7:7" ht="13" customHeight="1">
-      <c r="G81" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="7:7" ht="13" customHeight="1">
-      <c r="G82" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="7:7" ht="13" customHeight="1">
-      <c r="G83" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="7:7" ht="13" customHeight="1">
-      <c r="G84" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="7:7" ht="13" customHeight="1">
-      <c r="G85" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="7:7" ht="13" customHeight="1">
-      <c r="G86" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="7:7" ht="13" customHeight="1">
-      <c r="G87" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="7:7" ht="13" customHeight="1">
-      <c r="G88" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="7:7" ht="13" customHeight="1">
-      <c r="G89" s="35" t="str">
-        <f t="shared" si="118"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="7:7" ht="13" customHeight="1">
-      <c r="G90" s="35" t="str">
-        <f t="shared" ref="G90:G115" si="119">IF(D90="","",IF($E$5="OUI",WORKDAY(E90,IF(WEEKDAY(E90,2)&gt;=6,F90,F90-1)),E90+F90-1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="7:7" ht="13" customHeight="1">
-      <c r="G91" s="35" t="str">
+    <row r="63" spans="1:121" ht="13" customHeight="1">
+      <c r="F63" s="35" t="str">
+        <f t="shared" ref="F63:F94" si="119">IF(C63="","",IF($D$5="OUI",WORKDAY(D63,IF(WEEKDAY(D63,2)&gt;=6,E63,E63-1)),D63+E63-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:121" ht="13" customHeight="1">
+      <c r="F64" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:7" ht="13" customHeight="1">
-      <c r="G92" s="35" t="str">
+    <row r="65" spans="6:6" ht="13" customHeight="1">
+      <c r="F65" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:7" ht="13" customHeight="1">
-      <c r="G93" s="35" t="str">
+    <row r="66" spans="6:6" ht="13" customHeight="1">
+      <c r="F66" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:7" ht="13" customHeight="1">
-      <c r="G94" s="35" t="str">
+    <row r="67" spans="6:6" ht="13" customHeight="1">
+      <c r="F67" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:7" ht="13" customHeight="1">
-      <c r="G95" s="35" t="str">
+    <row r="68" spans="6:6" ht="13" customHeight="1">
+      <c r="F68" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:7" ht="13" customHeight="1">
-      <c r="G96" s="35" t="str">
+    <row r="69" spans="6:6" ht="13" customHeight="1">
+      <c r="F69" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="7:7" ht="13" customHeight="1">
-      <c r="G97" s="35" t="str">
+    <row r="70" spans="6:6" ht="13" customHeight="1">
+      <c r="F70" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="7:7" ht="13" customHeight="1">
-      <c r="G98" s="35" t="str">
+    <row r="71" spans="6:6" ht="13" customHeight="1">
+      <c r="F71" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="7:7" ht="13" customHeight="1">
-      <c r="G99" s="35" t="str">
+    <row r="72" spans="6:6" ht="13" customHeight="1">
+      <c r="F72" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="7:7" ht="13" customHeight="1">
-      <c r="G100" s="35" t="str">
+    <row r="73" spans="6:6" ht="13" customHeight="1">
+      <c r="F73" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="7:7" ht="13" customHeight="1">
-      <c r="G101" s="35" t="str">
+    <row r="74" spans="6:6" ht="13" customHeight="1">
+      <c r="F74" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="7:7" ht="13" customHeight="1">
-      <c r="G102" s="35" t="str">
+    <row r="75" spans="6:6" ht="13" customHeight="1">
+      <c r="F75" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="7:7" ht="13" customHeight="1">
-      <c r="G103" s="35" t="str">
+    <row r="76" spans="6:6" ht="13" customHeight="1">
+      <c r="F76" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="7:7" ht="13" customHeight="1">
-      <c r="G104" s="35" t="str">
+    <row r="77" spans="6:6" ht="13" customHeight="1">
+      <c r="F77" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="7:7" ht="13" customHeight="1">
-      <c r="G105" s="35" t="str">
+    <row r="78" spans="6:6" ht="13" customHeight="1">
+      <c r="F78" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="7:7" ht="13" customHeight="1">
-      <c r="G106" s="35" t="str">
+    <row r="79" spans="6:6" ht="13" customHeight="1">
+      <c r="F79" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="7:7" ht="13" customHeight="1">
-      <c r="G107" s="35" t="str">
+    <row r="80" spans="6:6" ht="13" customHeight="1">
+      <c r="F80" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="7:7" ht="13" customHeight="1">
-      <c r="G108" s="35" t="str">
+    <row r="81" spans="6:6" ht="13" customHeight="1">
+      <c r="F81" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="7:7" ht="13" customHeight="1">
-      <c r="G109" s="35" t="str">
+    <row r="82" spans="6:6" ht="13" customHeight="1">
+      <c r="F82" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="7:7">
-      <c r="G110" s="35" t="str">
+    <row r="83" spans="6:6" ht="13" customHeight="1">
+      <c r="F83" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="7:7">
-      <c r="G111" s="35" t="str">
+    <row r="84" spans="6:6" ht="13" customHeight="1">
+      <c r="F84" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="7:7">
-      <c r="G112" s="35" t="str">
+    <row r="85" spans="6:6" ht="13" customHeight="1">
+      <c r="F85" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="7:7">
-      <c r="G113" s="35" t="str">
+    <row r="86" spans="6:6" ht="13" customHeight="1">
+      <c r="F86" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="7:7">
-      <c r="G114" s="35" t="str">
+    <row r="87" spans="6:6" ht="13" customHeight="1">
+      <c r="F87" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="7:7">
-      <c r="G115" s="35" t="str">
+    <row r="88" spans="6:6" ht="13" customHeight="1">
+      <c r="F88" s="35" t="str">
         <f t="shared" si="119"/>
         <v/>
       </c>
     </row>
+    <row r="89" spans="6:6" ht="13" customHeight="1">
+      <c r="F89" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="13" customHeight="1">
+      <c r="F90" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="13" customHeight="1">
+      <c r="F91" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="13" customHeight="1">
+      <c r="F92" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="13" customHeight="1">
+      <c r="F93" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="13" customHeight="1">
+      <c r="F94" s="35" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="13" customHeight="1">
+      <c r="F95" s="35" t="str">
+        <f t="shared" ref="F95:F120" si="120">IF(C95="","",IF($D$5="OUI",WORKDAY(D95,IF(WEEKDAY(D95,2)&gt;=6,E95,E95-1)),D95+E95-1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="13" customHeight="1">
+      <c r="F96" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="13" customHeight="1">
+      <c r="F97" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="13" customHeight="1">
+      <c r="F98" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6" ht="13" customHeight="1">
+      <c r="F99" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="6:6" ht="13" customHeight="1">
+      <c r="F100" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:6" ht="13" customHeight="1">
+      <c r="F101" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:6" ht="13" customHeight="1">
+      <c r="F102" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="6:6" ht="13" customHeight="1">
+      <c r="F103" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="6:6" ht="13" customHeight="1">
+      <c r="F104" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="6:6" ht="13" customHeight="1">
+      <c r="F105" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="6:6" ht="13" customHeight="1">
+      <c r="F106" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="6:6" ht="13" customHeight="1">
+      <c r="F107" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="6:6" ht="13" customHeight="1">
+      <c r="F108" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="6:6" ht="13" customHeight="1">
+      <c r="F109" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="6:6" ht="13" customHeight="1">
+      <c r="F110" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="6:6" ht="13" customHeight="1">
+      <c r="F111" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="6:6" ht="13" customHeight="1">
+      <c r="F112" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="6:6" ht="13" customHeight="1">
+      <c r="F113" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="6:6" ht="13" customHeight="1">
+      <c r="F114" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="35" t="str">
+        <f t="shared" si="120"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H9:H10"/>
+  <mergeCells count="15">
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="J8:DR8">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>J8&lt;&gt;""</formula>
+  <conditionalFormatting sqref="I8:DQ8">
+    <cfRule type="expression" dxfId="53" priority="66">
+      <formula>I8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:EU7">
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>K10&lt;&gt;1</formula>
+  <conditionalFormatting sqref="J7:ET7">
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula>J10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:EU7 K8:DR10">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>K$10=1</formula>
+  <conditionalFormatting sqref="J7:ET7 J8:DQ10">
+    <cfRule type="expression" dxfId="51" priority="63">
+      <formula>J$10=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H18 H40 I46:DN46 H42:H118">
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>$D11&lt;&gt;""</formula>
+  <conditionalFormatting sqref="G43 H51:DM51 G47:G123 G11:G17 G24">
+    <cfRule type="expression" dxfId="50" priority="57">
+      <formula>$C11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="31" priority="60">
-      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="I40:BP40">
+    <cfRule type="expression" dxfId="49" priority="89">
+      <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BQ38 BB41:BC41 AV34:AY34 AN31:AQ31 CH45:CW45">
-    <cfRule type="expression" dxfId="30" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="I40:BP41 BA44:BB44 AU36:AX36 AM32:AP32 CG50:CV50 I18:BP18 AJ25:AK25 BD46:BH46">
+    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="70">
-      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&lt;=$I31,$H31&gt;0)</formula>
+    <cfRule type="expression" dxfId="47" priority="99">
+      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&lt;=$H18,$G18&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="71">
-      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31,J$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="46" priority="100">
+      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="72">
-      <formula>AND(J$7&gt;=$E31,J$7&lt;=$G31,J$7&gt;=$I31)</formula>
+    <cfRule type="expression" dxfId="45" priority="101">
+      <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37 H41 H19:H34">
-    <cfRule type="expression" dxfId="26" priority="90">
+  <conditionalFormatting sqref="G40 G18:G23 G44 G25:G30 G32:G34 G36 G46">
+    <cfRule type="expression" dxfId="44" priority="119">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="25" priority="91">
-      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="I18:BP18">
+    <cfRule type="expression" dxfId="43" priority="120">
+      <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="24" priority="127" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="128">
-      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&lt;=$I19,$H19&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="129">
-      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19,J$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="130">
-      <formula>AND(J$7&gt;=$E19,J$7&lt;=$G19,J$7&gt;=$I19)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="20" priority="192">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="42" priority="221">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="19" priority="194">
-      <formula>AND(J$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="I41:BP41">
+    <cfRule type="expression" dxfId="41" priority="223">
+      <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:EU7 J8:DR9 BR10:DR11 J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45 J10:BQ17">
-    <cfRule type="expression" dxfId="18" priority="205">
-      <formula>AND(J$7=$I$2,$D7&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="I7:ET7 I8:DQ9 BQ10:DQ11 I10:BP16 I17:DQ17 BQ47:DQ47 I43:BP43 DN51:DQ51 I52:BP120 I47:BP50 I24:BP24">
+    <cfRule type="expression" dxfId="40" priority="234">
+      <formula>AND(I$7=$H$2,$C7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18:DR18 BR42:DR42 J40:BQ40 DO46:DR46 J47:BQ115 J42:BQ45 J12:BQ17">
-    <cfRule type="expression" dxfId="17" priority="214" stopIfTrue="1">
-      <formula>$D12=""</formula>
+  <conditionalFormatting sqref="I12:BP16 I17:DQ17 BQ47:DQ47 I43:BP43 DN51:DQ51 I52:BP120 I47:BP50 I24:BP24">
+    <cfRule type="expression" dxfId="39" priority="243" stopIfTrue="1">
+      <formula>$C12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="215">
-      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&lt;=$I12,$H12&gt;0)</formula>
+    <cfRule type="expression" dxfId="38" priority="244">
+      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&lt;=$H12,$G12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="216">
-      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12,J$7&gt;=TODAY())</formula>
+    <cfRule type="expression" dxfId="37" priority="245">
+      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="217">
-      <formula>AND(J$7&gt;=$E12,J$7&lt;=$G12,J$7&gt;=$I12)</formula>
+    <cfRule type="expression" dxfId="36" priority="246">
+      <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB41:BC41">
-    <cfRule type="expression" dxfId="13" priority="21">
-      <formula>AND(BB$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="BA44:BB44">
+    <cfRule type="expression" dxfId="35" priority="50">
+      <formula>AND(BA$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV34:AY34">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>AND(AV$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="AU36:AX36">
+    <cfRule type="expression" dxfId="34" priority="45">
+      <formula>AND(AU$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN31:AQ31">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND(AN$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="AM32:AP32">
+    <cfRule type="expression" dxfId="33" priority="40">
+      <formula>AND(AM$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK25:AL25">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>AND(AK$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="AJ25:AK25">
+    <cfRule type="expression" dxfId="32" priority="35">
+      <formula>AND(AJ$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK25:AL25">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
-      <formula>#REF!=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&lt;=$I25,$H25&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25,AK$7&gt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>AND(AK$7&gt;=$E25,AK$7&lt;=$G25,AK$7&gt;=$I25)</formula>
+  <conditionalFormatting sqref="CG50:CV50">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>AND(CG$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH45:CW45">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>AND(CH$7=$I$2,#REF!&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="BD46:BH46">
+    <cfRule type="expression" dxfId="30" priority="25">
+      <formula>AND(BD$7=$H$2,#REF!&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="29" priority="19">
+      <formula>$C31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BP31">
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>AND(I$7=$H$2,$C31&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:BP31">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+      <formula>$C31=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&lt;=$H31,$G31&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&gt;=$H31,I$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&gt;=$H31)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="23" priority="13">
+      <formula>$C35&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BP35">
+    <cfRule type="expression" dxfId="22" priority="14">
+      <formula>AND(I$7=$H$2,$C35&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BP35">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+      <formula>$C35=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&lt;=$H35,$G35&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&gt;=$H35,I$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&gt;=$H35)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>$C39&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BP39">
+    <cfRule type="expression" dxfId="16" priority="8">
+      <formula>AND(I$7=$H$2,$C39&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BP39">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>$C39=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&lt;=$H39,$G39&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&gt;=$H39,I$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&gt;=$H39)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$C45&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BP45">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND(I$7=$H$2,$C45&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BP45">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>$C45=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&lt;=$H45,$G45&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&gt;=$H45,I$7&gt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&gt;=$H45)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:F5">
       <formula1>ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5483,13 +6632,13 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>8</xdr:col>
                     <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>68</xdr:col>
+                    <xdr:col>67</xdr:col>
                     <xdr:colOff>177800</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>165100</xdr:rowOff>
@@ -5596,4 +6745,826 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F52"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="58.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15" thickBot="1"/>
+    <row r="3" spans="1:6" ht="16" customHeight="1" thickBot="1">
+      <c r="A3" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="16" customHeight="1">
+      <c r="A15" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" customHeight="1">
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+    </row>
+    <row r="17" spans="1:6" s="70" customFormat="1">
+      <c r="A17" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="117">
+        <v>2</v>
+      </c>
+      <c r="E18" s="117">
+        <v>1</v>
+      </c>
+      <c r="F18" s="118">
+        <f>D18*E18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="92">
+        <v>2</v>
+      </c>
+      <c r="E19" s="92">
+        <v>1</v>
+      </c>
+      <c r="F19" s="120">
+        <f t="shared" ref="F19:F22" si="0">D19*E19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="92">
+        <v>2</v>
+      </c>
+      <c r="E20" s="92">
+        <v>1</v>
+      </c>
+      <c r="F20" s="120">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="92">
+        <v>4</v>
+      </c>
+      <c r="E21" s="92">
+        <v>2</v>
+      </c>
+      <c r="F21" s="120">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
+      <c r="A22" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="124">
+        <v>2</v>
+      </c>
+      <c r="E22" s="124">
+        <v>1</v>
+      </c>
+      <c r="F22" s="125">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="80">
+        <f>SUM(F18:F22)</f>
+        <v>16</v>
+      </c>
+      <c r="F23" s="81"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="98"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+    </row>
+    <row r="25" spans="1:6" s="70" customFormat="1">
+      <c r="A25" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="117">
+        <v>1</v>
+      </c>
+      <c r="E26" s="117">
+        <v>2</v>
+      </c>
+      <c r="F26" s="118">
+        <f>D26*E26</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="92">
+        <v>1</v>
+      </c>
+      <c r="E27" s="92">
+        <v>2</v>
+      </c>
+      <c r="F27" s="120">
+        <f t="shared" ref="F27:F30" si="1">D27*E27</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="92">
+        <v>1</v>
+      </c>
+      <c r="E28" s="92">
+        <v>2</v>
+      </c>
+      <c r="F28" s="120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="92">
+        <v>1</v>
+      </c>
+      <c r="E29" s="92">
+        <v>2</v>
+      </c>
+      <c r="F29" s="120">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1">
+      <c r="A30" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="124">
+        <v>1</v>
+      </c>
+      <c r="E30" s="124">
+        <v>2</v>
+      </c>
+      <c r="F30" s="125">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="71" customFormat="1" ht="17" thickBot="1">
+      <c r="A31" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84">
+        <f>SUM(F26:F30)</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="81"/>
+    </row>
+    <row r="32" spans="1:6" s="100" customFormat="1" ht="16">
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6" s="70" customFormat="1">
+      <c r="A33" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="117">
+        <v>1</v>
+      </c>
+      <c r="E34" s="117">
+        <v>2</v>
+      </c>
+      <c r="F34" s="118">
+        <f>D34*E34</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1">
+      <c r="A35" s="134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="124">
+        <v>1</v>
+      </c>
+      <c r="E35" s="124">
+        <v>2</v>
+      </c>
+      <c r="F35" s="125">
+        <f>D35*E35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1">
+      <c r="A36" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="88">
+        <f>SUM(F34+F35)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="81"/>
+    </row>
+    <row r="37" spans="1:6" ht="16">
+      <c r="A37" s="99"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+    </row>
+    <row r="38" spans="1:6" s="70" customFormat="1">
+      <c r="A38" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="117">
+        <v>2</v>
+      </c>
+      <c r="E39" s="117">
+        <v>1</v>
+      </c>
+      <c r="F39" s="118">
+        <f>D39*E39</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
+      <c r="A40" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="124">
+        <v>1</v>
+      </c>
+      <c r="E40" s="124">
+        <v>2</v>
+      </c>
+      <c r="F40" s="125">
+        <f>D40*E40</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" thickBot="1">
+      <c r="A41" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="88">
+        <f>SUM(F39+F40)</f>
+        <v>4</v>
+      </c>
+      <c r="F41" s="81"/>
+    </row>
+    <row r="42" spans="1:6" ht="16">
+      <c r="A42" s="99"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+    </row>
+    <row r="43" spans="1:6" s="70" customFormat="1">
+      <c r="A43" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="117">
+        <v>1</v>
+      </c>
+      <c r="F44" s="118">
+        <f>D44*E44</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="92">
+        <v>3</v>
+      </c>
+      <c r="E45" s="92">
+        <v>1</v>
+      </c>
+      <c r="F45" s="120">
+        <f t="shared" ref="F45:F47" si="2">D45*E45</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="92">
+        <v>4</v>
+      </c>
+      <c r="E46" s="92">
+        <v>1</v>
+      </c>
+      <c r="F46" s="120">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="A47" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="124">
+        <v>4</v>
+      </c>
+      <c r="E47" s="124">
+        <v>1</v>
+      </c>
+      <c r="F47" s="125">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" thickBot="1">
+      <c r="A48" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="88">
+        <f>SUM(F44:F47)</f>
+        <v>11.5</v>
+      </c>
+      <c r="F48" s="81"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1">
+      <c r="A49" s="85"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+    </row>
+    <row r="50" spans="1:6" ht="17" thickBot="1">
+      <c r="A50" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="89">
+        <v>5</v>
+      </c>
+      <c r="F50" s="90"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1"/>
+    <row r="52" spans="1:6" ht="15" thickBot="1">
+      <c r="B52" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="101">
+        <f>SUM(E50:F51,E23,E31,E36,E41,E48)</f>
+        <v>50.5</v>
+      </c>
+      <c r="F52" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B48:D48"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/29-04/Template planning.xlsx
+++ b/29-04/Template planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="16140" tabRatio="670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="670"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -1189,57 +1189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,28 +1208,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,15 +1216,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,45 +1238,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1417,6 +1297,126 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="104">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
@@ -1524,36 +1524,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1588,27 +1559,6 @@
         <left style="thin">
           <color rgb="FFFF0000"/>
         </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1982,156 +1932,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7C46E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2168,7 +1968,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
-          <xdr:colOff>177801</xdr:colOff>
+          <xdr:colOff>177800</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
@@ -2492,9 +2292,9 @@
   </sheetPr>
   <dimension ref="A1:ET120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2513,49 +2313,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:150" ht="14">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
       <c r="H1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:150" ht="12">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="H2" s="3">
         <f ca="1">TODAY()</f>
         <v>42489</v>
       </c>
     </row>
     <row r="3" spans="1:150" ht="14.25" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:150" ht="10.5" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
       <c r="D4" s="28">
         <f ca="1">TODAY()</f>
         <v>42489</v>
@@ -2565,11 +2365,11 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:150" ht="12">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="29" t="s">
         <v>14</v>
       </c>
@@ -2578,11 +2378,11 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:150" ht="12">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="30">
         <v>42480</v>
       </c>
@@ -2591,14 +2391,14 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:150" s="4" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="37"/>
       <c r="H7" s="15"/>
       <c r="I7" s="5">
@@ -3632,22 +3432,22 @@
     </row>
     <row r="9" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="106" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="17"/>
@@ -4106,12 +3906,12 @@
     </row>
     <row r="10" spans="1:150" s="2" customFormat="1" ht="13" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="17"/>
       <c r="I10" s="10">
         <f>DAY(I7)</f>
@@ -5086,8 +4886,8 @@
         <v>0</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="144"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
     </row>
     <row r="25" spans="1:121" ht="13" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -5778,7 +5578,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="27"/>
-      <c r="E51" s="66">
+      <c r="E51" s="49">
         <v>1</v>
       </c>
       <c r="F51" s="44">
@@ -5960,11 +5760,11 @@
       </c>
     </row>
     <row r="55" spans="1:121" ht="13" customHeight="1">
-      <c r="C55" s="143" t="s">
+      <c r="C55" s="103" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="142">
+      <c r="E55" s="102">
         <f>SUM(E16:E51)</f>
         <v>95.5</v>
       </c>
@@ -6394,12 +6194,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D2:F2"/>
@@ -6409,208 +6203,214 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:DQ8">
-    <cfRule type="expression" dxfId="53" priority="66">
+    <cfRule type="expression" dxfId="47" priority="66">
       <formula>I8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:ET7">
-    <cfRule type="expression" dxfId="52" priority="65">
+    <cfRule type="expression" dxfId="46" priority="65">
       <formula>J10&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:ET7 J8:DQ10">
-    <cfRule type="expression" dxfId="51" priority="63">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>J$10=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43 H51:DM51 G47:G123 G11:G17 G24">
-    <cfRule type="expression" dxfId="50" priority="57">
+    <cfRule type="expression" dxfId="44" priority="57">
       <formula>$C11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BP40">
-    <cfRule type="expression" dxfId="49" priority="89">
+    <cfRule type="expression" dxfId="43" priority="89">
       <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BP41 BA44:BB44 AU36:AX36 AM32:AP32 CG50:CV50 I18:BP18 AJ25:AK25 BD46:BH46">
-    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="98" stopIfTrue="1">
       <formula>#REF!=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="99">
+    <cfRule type="expression" dxfId="41" priority="99">
       <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&lt;=$H18,$G18&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="100">
+    <cfRule type="expression" dxfId="40" priority="100">
       <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="101">
+    <cfRule type="expression" dxfId="39" priority="101">
       <formula>AND(I$7&gt;=$D18,I$7&lt;=$F18,I$7&gt;=$H18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40 G18:G23 G44 G25:G30 G32:G34 G36 G46">
-    <cfRule type="expression" dxfId="44" priority="119">
+    <cfRule type="expression" dxfId="38" priority="119">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BP18">
-    <cfRule type="expression" dxfId="43" priority="120">
+    <cfRule type="expression" dxfId="37" priority="120">
       <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="42" priority="221">
+    <cfRule type="expression" dxfId="36" priority="221">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BP41">
-    <cfRule type="expression" dxfId="41" priority="223">
+    <cfRule type="expression" dxfId="35" priority="223">
       <formula>AND(I$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:ET7 I8:DQ9 BQ10:DQ11 I10:BP16 I17:DQ17 BQ47:DQ47 I43:BP43 DN51:DQ51 I52:BP120 I47:BP50 I24:BP24">
-    <cfRule type="expression" dxfId="40" priority="234">
+    <cfRule type="expression" dxfId="34" priority="234">
       <formula>AND(I$7=$H$2,$C7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BP16 I17:DQ17 BQ47:DQ47 I43:BP43 DN51:DQ51 I52:BP120 I47:BP50 I24:BP24">
-    <cfRule type="expression" dxfId="39" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="243" stopIfTrue="1">
       <formula>$C12=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="244">
+    <cfRule type="expression" dxfId="32" priority="244">
       <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&lt;=$H12,$G12&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="245">
+    <cfRule type="expression" dxfId="31" priority="245">
       <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="246">
+    <cfRule type="expression" dxfId="30" priority="246">
       <formula>AND(I$7&gt;=$D12,I$7&lt;=$F12,I$7&gt;=$H12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA44:BB44">
-    <cfRule type="expression" dxfId="35" priority="50">
+    <cfRule type="expression" dxfId="29" priority="50">
       <formula>AND(BA$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU36:AX36">
-    <cfRule type="expression" dxfId="34" priority="45">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>AND(AU$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM32:AP32">
-    <cfRule type="expression" dxfId="33" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>AND(AM$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25:AK25">
-    <cfRule type="expression" dxfId="32" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>AND(AJ$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG50:CV50">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="25" priority="30">
       <formula>AND(CG$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD46:BH46">
-    <cfRule type="expression" dxfId="30" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>AND(BD$7=$H$2,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$C31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BP31">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>AND(I$7=$H$2,$C31&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BP31">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>$C31=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&lt;=$H31,$G31&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&gt;=$H31,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>AND(I$7&gt;=$D31,I$7&lt;=$F31,I$7&gt;=$H31)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$C35&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BP35">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>AND(I$7=$H$2,$C35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:BP35">
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>$C35=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&lt;=$H35,$G35&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&gt;=$H35,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>AND(I$7&gt;=$D35,I$7&lt;=$F35,I$7&gt;=$H35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$C39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BP39">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND(I$7=$H$2,$C39&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BP39">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$C39=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&lt;=$H39,$G39&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&gt;=$H39,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(I$7&gt;=$D39,I$7&lt;=$F39,I$7&gt;=$H39)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C45&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BP45">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(I$7=$H$2,$C45&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:BP45">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$C45=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&lt;=$H45,$G45&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&gt;=$H45,I$7&gt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>AND(I$7&gt;=$D45,I$7&lt;=$F45,I$7&gt;=$H45)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6620,7 +6420,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6751,797 +6550,804 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="58.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="67"/>
+    <col min="1" max="1" width="58.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15" thickBot="1"/>
     <row r="3" spans="1:6" ht="16" customHeight="1" thickBot="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="52">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="52">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="52">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1"/>
     <row r="15" spans="1:6" ht="16" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
     </row>
     <row r="16" spans="1:6" ht="16" customHeight="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-    </row>
-    <row r="17" spans="1:6" s="70" customFormat="1">
-      <c r="A17" s="74" t="s">
+      <c r="A16" s="140"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="142"/>
+    </row>
+    <row r="17" spans="1:6" s="53" customFormat="1">
+      <c r="A17" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="77">
         <v>2</v>
       </c>
-      <c r="E18" s="117">
+      <c r="E18" s="77">
         <v>1</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="78">
         <f>D18*E18</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="92">
+      <c r="D19" s="65">
         <v>2</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="65">
         <v>1</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="80">
         <f t="shared" ref="F19:F22" si="0">D19*E19</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D20" s="65">
         <v>2</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="65">
         <v>1</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="80">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="65">
         <v>4</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="65">
         <v>2</v>
       </c>
-      <c r="F21" s="120">
+      <c r="F21" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="124">
+      <c r="D22" s="84">
         <v>2</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="84">
         <v>1</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="85">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="80">
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="126">
         <f>SUM(F18:F22)</f>
         <v>16</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="127"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-    </row>
-    <row r="25" spans="1:6" s="70" customFormat="1">
-      <c r="A25" s="74" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+    </row>
+    <row r="25" spans="1:6" s="53" customFormat="1">
+      <c r="A25" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="117">
+      <c r="D26" s="77">
         <v>1</v>
       </c>
-      <c r="E26" s="117">
+      <c r="E26" s="77">
         <v>2</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="78">
         <f>D26*E26</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="65">
         <v>1</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="65">
         <v>2</v>
       </c>
-      <c r="F27" s="120">
+      <c r="F27" s="80">
         <f t="shared" ref="F27:F30" si="1">D27*E27</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="92">
+      <c r="D28" s="65">
         <v>1</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="65">
         <v>2</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F28" s="80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="65">
         <v>1</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="65">
         <v>2</v>
       </c>
-      <c r="F29" s="120">
+      <c r="F29" s="80">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D30" s="84">
         <v>1</v>
       </c>
-      <c r="E30" s="124">
+      <c r="E30" s="84">
         <v>2</v>
       </c>
-      <c r="F30" s="125">
+      <c r="F30" s="85">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="71" customFormat="1" ht="17" thickBot="1">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:6" s="54" customFormat="1" ht="17" thickBot="1">
+      <c r="A31" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84">
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="128">
         <f>SUM(F26:F30)</f>
         <v>10</v>
       </c>
-      <c r="F31" s="81"/>
-    </row>
-    <row r="32" spans="1:6" s="100" customFormat="1" ht="16">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-    </row>
-    <row r="33" spans="1:6" s="70" customFormat="1">
-      <c r="A33" s="74" t="s">
+      <c r="F31" s="127"/>
+    </row>
+    <row r="32" spans="1:6" s="73" customFormat="1" ht="16">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" spans="1:6" s="53" customFormat="1">
+      <c r="A33" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="77">
         <v>1</v>
       </c>
-      <c r="E34" s="117">
+      <c r="E34" s="77">
         <v>2</v>
       </c>
-      <c r="F34" s="118">
+      <c r="F34" s="78">
         <f>D34*E34</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="124">
+      <c r="D35" s="84">
         <v>1</v>
       </c>
-      <c r="E35" s="124">
+      <c r="E35" s="84">
         <v>2</v>
       </c>
-      <c r="F35" s="125">
+      <c r="F35" s="85">
         <f>D35*E35</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" thickBot="1">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="88">
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="131">
         <f>SUM(F34+F35)</f>
         <v>4</v>
       </c>
-      <c r="F36" s="81"/>
+      <c r="F36" s="127"/>
     </row>
     <row r="37" spans="1:6" ht="16">
-      <c r="A37" s="99"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-    </row>
-    <row r="38" spans="1:6" s="70" customFormat="1">
-      <c r="A38" s="74" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+    </row>
+    <row r="38" spans="1:6" s="53" customFormat="1">
+      <c r="A38" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="136" t="s">
+      <c r="C39" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="77">
         <v>2</v>
       </c>
-      <c r="E39" s="117">
+      <c r="E39" s="77">
         <v>1</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="78">
         <f>D39*E39</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="124">
+      <c r="D40" s="84">
         <v>1</v>
       </c>
-      <c r="E40" s="124">
+      <c r="E40" s="84">
         <v>2</v>
       </c>
-      <c r="F40" s="125">
+      <c r="F40" s="85">
         <f>D40*E40</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" thickBot="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="88">
+      <c r="C41" s="130"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="131">
         <f>SUM(F39+F40)</f>
         <v>4</v>
       </c>
-      <c r="F41" s="81"/>
+      <c r="F41" s="127"/>
     </row>
     <row r="42" spans="1:6" ht="16">
-      <c r="A42" s="99"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-    </row>
-    <row r="43" spans="1:6" s="70" customFormat="1">
-      <c r="A43" s="74" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+    </row>
+    <row r="43" spans="1:6" s="53" customFormat="1">
+      <c r="A43" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="135" t="s">
+      <c r="B44" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="136" t="s">
+      <c r="C44" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="117">
+      <c r="D44" s="77">
         <v>0.5</v>
       </c>
-      <c r="E44" s="117">
+      <c r="E44" s="77">
         <v>1</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F44" s="78">
         <f>D44*E44</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="65">
         <v>3</v>
       </c>
-      <c r="E45" s="92">
+      <c r="E45" s="65">
         <v>1</v>
       </c>
-      <c r="F45" s="120">
+      <c r="F45" s="80">
         <f t="shared" ref="F45:F47" si="2">D45*E45</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="140" t="s">
+      <c r="A46" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="92">
+      <c r="D46" s="65">
         <v>4</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="65">
         <v>1</v>
       </c>
-      <c r="F46" s="120">
+      <c r="F46" s="80">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="137" t="s">
+      <c r="B47" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="141" t="s">
+      <c r="C47" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="124">
+      <c r="D47" s="84">
         <v>4</v>
       </c>
-      <c r="E47" s="124">
+      <c r="E47" s="84">
         <v>1</v>
       </c>
-      <c r="F47" s="125">
+      <c r="F47" s="85">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" thickBot="1">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="88">
+      <c r="C48" s="130"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="131">
         <f>SUM(F44:F47)</f>
         <v>11.5</v>
       </c>
-      <c r="F48" s="81"/>
+      <c r="F48" s="127"/>
     </row>
     <row r="49" spans="1:6" ht="17" thickBot="1">
-      <c r="A49" s="85"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
     </row>
     <row r="50" spans="1:6" ht="17" thickBot="1">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="89">
+      <c r="C50" s="130"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="143">
         <v>5</v>
       </c>
-      <c r="F50" s="90"/>
+      <c r="F50" s="144"/>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1"/>
     <row r="52" spans="1:6" ht="15" thickBot="1">
-      <c r="B52" s="101" t="s">
+      <c r="B52" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="101">
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="123">
         <f>SUM(E50:F51,E23,E31,E36,E41,E48)</f>
         <v>50.5</v>
       </c>
-      <c r="F52" s="103"/>
+      <c r="F52" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E23:F23"/>
@@ -7551,16 +7357,8 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B48:D48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
